--- a/HEESI/HEESI.xlsx
+++ b/HEESI/HEESI.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\References\HEESI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\HEESI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8DBFD-5215-40E8-950F-E6AF5396D49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D877F4-9427-464C-A360-06C82BCD09F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3555" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Industry" sheetId="1" r:id="rId1"/>
     <sheet name="Household" sheetId="2" r:id="rId2"/>
-    <sheet name="Transportation" sheetId="3" r:id="rId3"/>
-    <sheet name="Refinery" sheetId="4" r:id="rId4"/>
-    <sheet name="Natural Gas" sheetId="5" r:id="rId5"/>
-    <sheet name="Power Plant" sheetId="6" r:id="rId6"/>
+    <sheet name="Commercial" sheetId="7" r:id="rId3"/>
+    <sheet name="Transportation" sheetId="3" r:id="rId4"/>
+    <sheet name="Refinery" sheetId="4" r:id="rId5"/>
+    <sheet name="Natural Gas" sheetId="5" r:id="rId6"/>
+    <sheet name="Power Plant" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
   <si>
     <t>Year</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Energy Consumption in Household Sector</t>
-  </si>
-  <si>
-    <t>Energy Consumption in Household Sector (Thousand Ton BOE)</t>
   </si>
   <si>
     <t>Share of Energy Consumption in Household Sector</t>
@@ -311,6 +308,36 @@
   <si>
     <t>Distribution</t>
   </si>
+  <si>
+    <t>Other Petrol Product</t>
+  </si>
+  <si>
+    <t>O(ther Petrol Product</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Biofuel and Waste</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>Energy Consumption in Household Sector (Thousand BOE)</t>
+  </si>
+  <si>
+    <t>2012*)</t>
+  </si>
+  <si>
+    <t>2013*)</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -431,12 +458,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,6 +541,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,7 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -491,6 +594,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -772,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M64"/>
+  <dimension ref="A2:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27:AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,65 +892,78 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -858,161 +980,363 @@
         <v>10</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="3" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2000</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>25667</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8586</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>483438</v>
+      </c>
+      <c r="F6" s="4">
+        <v>711774</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5729941</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1211930</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3674761</v>
+      </c>
+      <c r="J6" s="4">
+        <v>11328406</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2094316</v>
+      </c>
+      <c r="L6" s="3">
+        <v>126</v>
+      </c>
+      <c r="M6" s="4">
+        <v>34013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2001</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>24016</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8815</v>
+      </c>
+      <c r="D7" s="3">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4">
+        <v>455798</v>
+      </c>
+      <c r="F7" s="4">
+        <v>701791</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6082584</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1170511</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3832704</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11787590</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4008106</v>
+      </c>
+      <c r="L7" s="3">
+        <v>114</v>
+      </c>
+      <c r="M7" s="4">
+        <v>35593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2002</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>22762</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9214</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>448261</v>
+      </c>
+      <c r="F8" s="4">
+        <v>667247</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5985416</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1106467</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3676959</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11436088</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3536732</v>
+      </c>
+      <c r="L8" s="3">
+        <v>128</v>
+      </c>
+      <c r="M8" s="4">
+        <v>36831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2003</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>21832</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16253</v>
+      </c>
+      <c r="D9" s="3">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>500622</v>
+      </c>
+      <c r="F9" s="4">
+        <v>671513</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5764971</v>
+      </c>
+      <c r="H9" s="4">
+        <v>962232</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2981697</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10380414</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3668380</v>
+      </c>
+      <c r="L9" s="3">
+        <v>95</v>
+      </c>
+      <c r="M9" s="4">
+        <v>36497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2004</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>20417</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13177</v>
+      </c>
+      <c r="D10" s="3">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>473695</v>
+      </c>
+      <c r="F10" s="4">
+        <v>676827</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6626385</v>
+      </c>
+      <c r="H10" s="4">
+        <v>887061</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3140129</v>
+      </c>
+      <c r="J10" s="4">
+        <v>11330403</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5879216</v>
+      </c>
+      <c r="L10" s="3">
+        <v>129</v>
+      </c>
+      <c r="M10" s="4">
+        <v>40324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2005</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>19113</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15653</v>
+      </c>
+      <c r="D11" s="3">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>480382</v>
+      </c>
+      <c r="F11" s="4">
+        <v>649626</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6155112</v>
+      </c>
+      <c r="H11" s="4">
+        <v>732888</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2243407</v>
+      </c>
+      <c r="J11" s="4">
+        <v>9781033</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4616280</v>
+      </c>
+      <c r="L11" s="3">
+        <v>133</v>
+      </c>
+      <c r="M11" s="4">
+        <v>42448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2006</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>20313</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21201</v>
+      </c>
+      <c r="D12" s="3">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>461277</v>
+      </c>
+      <c r="F12" s="4">
+        <v>572676</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5399470</v>
+      </c>
+      <c r="H12" s="4">
+        <v>397599</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2320623</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8690367</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6410874</v>
+      </c>
+      <c r="L12" s="3">
+        <v>170</v>
+      </c>
+      <c r="M12" s="4">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2007</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>18325</v>
+      </c>
+      <c r="C13" s="4">
+        <v>29025</v>
+      </c>
+      <c r="D13" s="3">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4">
+        <v>443889</v>
+      </c>
+      <c r="F13" s="4">
+        <v>565550</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5208388</v>
+      </c>
+      <c r="H13" s="4">
+        <v>215233</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1990450</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7979620</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6215568</v>
+      </c>
+      <c r="L13" s="3">
+        <v>146</v>
+      </c>
+      <c r="M13" s="1">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2008</v>
       </c>
@@ -1043,14 +1367,17 @@
       <c r="J14" s="4">
         <v>9169487</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
+        <v>8117302</v>
+      </c>
+      <c r="L14" s="3">
         <v>132</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>47969</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2009</v>
       </c>
@@ -1081,14 +1408,17 @@
       <c r="J15" s="4">
         <v>8924817</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
+        <v>8676804</v>
+      </c>
+      <c r="L15" s="3">
         <v>69</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>46204</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2010</v>
       </c>
@@ -1119,14 +1449,17 @@
       <c r="J16" s="4">
         <v>7573980</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
+        <v>8692820</v>
+      </c>
+      <c r="L16" s="3">
         <v>77</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>50985</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2011</v>
       </c>
@@ -1157,14 +1490,17 @@
       <c r="J17" s="4">
         <v>9041580</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
+        <v>10908408</v>
+      </c>
+      <c r="L17" s="3">
         <v>73</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>54725</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2012</v>
       </c>
@@ -1195,14 +1531,17 @@
       <c r="J18" s="4">
         <v>10693632</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
+        <v>12772090</v>
+      </c>
+      <c r="L18" s="3">
         <v>73</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>60176</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2013</v>
       </c>
@@ -1233,14 +1572,17 @@
       <c r="J19" s="4">
         <v>9028360</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
+        <v>10313467</v>
+      </c>
+      <c r="L19" s="3">
         <v>81</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>64381</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2014</v>
       </c>
@@ -1271,14 +1613,17 @@
       <c r="J20" s="4">
         <v>8227975</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
+        <v>10552828</v>
+      </c>
+      <c r="L20" s="3">
         <v>88</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>65909</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2015</v>
       </c>
@@ -1309,14 +1654,14 @@
       <c r="J21" s="4">
         <v>9436694</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>64079</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2016</v>
       </c>
@@ -1347,14 +1692,14 @@
       <c r="J22" s="4">
         <v>6189014</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>96</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>68145</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2017</v>
       </c>
@@ -1385,14 +1730,14 @@
       <c r="J23" s="4">
         <v>6885316</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>72238</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2018</v>
       </c>
@@ -1423,69 +1768,108 @@
       <c r="J24" s="4">
         <v>5581320</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>110</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>93535</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="M27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="P27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1501,164 +1885,794 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="K28" s="27"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="16"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="P29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2000</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>58981</v>
+      </c>
+      <c r="C30" s="4">
+        <v>36060</v>
+      </c>
+      <c r="D30" s="3">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4">
+        <v>86826</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4219</v>
+      </c>
+      <c r="G30" s="4">
+        <v>37171</v>
+      </c>
+      <c r="H30" s="4">
+        <v>8008</v>
+      </c>
+      <c r="I30" s="4">
+        <v>25581</v>
+      </c>
+      <c r="J30" s="4">
+        <v>74979</v>
+      </c>
+      <c r="K30" s="4">
+        <v>13435</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1073</v>
+      </c>
+      <c r="M30" s="4">
+        <v>20850</v>
+      </c>
+      <c r="N30" s="4">
+        <v>292289</v>
+      </c>
+      <c r="P30" s="4">
+        <f>C30+D30</f>
+        <v>36145</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>K30+J30</f>
+        <v>88414</v>
+      </c>
+      <c r="R30" s="4">
+        <f>L30+E30</f>
+        <v>87899</v>
+      </c>
+      <c r="S30" s="4">
+        <f>+M30</f>
+        <v>20850</v>
+      </c>
+      <c r="T30" s="4">
+        <f>B30</f>
+        <v>58981</v>
+      </c>
+      <c r="U30" s="4">
+        <f>SUM(P30:T30)</f>
+        <v>292289</v>
+      </c>
+      <c r="V30" s="3">
+        <f>P30*1000</f>
+        <v>36145000</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" ref="W30:AA30" si="0">Q30*1000</f>
+        <v>88414000</v>
+      </c>
+      <c r="X30" s="3">
+        <f t="shared" si="0"/>
+        <v>87899000</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="0"/>
+        <v>20850000</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="0"/>
+        <v>58981000</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" si="0"/>
+        <v>292289000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2001</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>55186</v>
+      </c>
+      <c r="C31" s="4">
+        <v>37021</v>
+      </c>
+      <c r="D31" s="3">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4">
+        <v>81861</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4160</v>
+      </c>
+      <c r="G31" s="4">
+        <v>39458</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7735</v>
+      </c>
+      <c r="I31" s="4">
+        <v>26680</v>
+      </c>
+      <c r="J31" s="4">
+        <v>78033</v>
+      </c>
+      <c r="K31" s="4">
+        <v>25712</v>
+      </c>
+      <c r="L31" s="3">
+        <v>972</v>
+      </c>
+      <c r="M31" s="4">
+        <v>21819</v>
+      </c>
+      <c r="N31" s="4">
+        <v>300683</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" ref="P31:P48" si="1">C31+D31</f>
+        <v>37099</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" ref="Q31:Q48" si="2">K31+J31</f>
+        <v>103745</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" ref="R31:R48" si="3">L31+E31</f>
+        <v>82833</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" ref="S31:S48" si="4">+M31</f>
+        <v>21819</v>
+      </c>
+      <c r="T31" s="4">
+        <f t="shared" ref="T31:T48" si="5">B31</f>
+        <v>55186</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" ref="U31:U39" si="6">SUM(P31:T31)</f>
+        <v>300682</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" ref="V31:V39" si="7">P31*1000</f>
+        <v>37099000</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" ref="W31:W39" si="8">Q31*1000</f>
+        <v>103745000</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" ref="X31:X39" si="9">R31*1000</f>
+        <v>82833000</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" ref="Y31:Y39" si="10">S31*1000</f>
+        <v>21819000</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" ref="Z31:Z39" si="11">T31*1000</f>
+        <v>55186000</v>
+      </c>
+      <c r="AA31" s="3">
+        <f t="shared" ref="AA31:AA39" si="12">U31*1000</f>
+        <v>300682000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2002</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>52305</v>
+      </c>
+      <c r="C32" s="4">
+        <v>38698</v>
+      </c>
+      <c r="D32" s="3">
+        <v>83</v>
+      </c>
+      <c r="E32" s="4">
+        <v>80508</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3955</v>
+      </c>
+      <c r="G32" s="4">
+        <v>38828</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7311</v>
+      </c>
+      <c r="I32" s="4">
+        <v>25596</v>
+      </c>
+      <c r="J32" s="4">
+        <v>75690</v>
+      </c>
+      <c r="K32" s="4">
+        <v>22688</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1093</v>
+      </c>
+      <c r="M32" s="4">
+        <v>22578</v>
+      </c>
+      <c r="N32" s="4">
+        <v>293643</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="1"/>
+        <v>38781</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" si="2"/>
+        <v>98378</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="3"/>
+        <v>81601</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="4"/>
+        <v>22578</v>
+      </c>
+      <c r="T32" s="4">
+        <f t="shared" si="5"/>
+        <v>52305</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="6"/>
+        <v>293643</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" si="7"/>
+        <v>38781000</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" si="8"/>
+        <v>98378000</v>
+      </c>
+      <c r="X32" s="3">
+        <f t="shared" si="9"/>
+        <v>81601000</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="10"/>
+        <v>22578000</v>
+      </c>
+      <c r="Z32" s="3">
+        <f t="shared" si="11"/>
+        <v>52305000</v>
+      </c>
+      <c r="AA32" s="3">
+        <f t="shared" si="12"/>
+        <v>293643000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2003</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>50167</v>
+      </c>
+      <c r="C33" s="4">
+        <v>68264</v>
+      </c>
+      <c r="D33" s="3">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4">
+        <v>89912</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3980</v>
+      </c>
+      <c r="G33" s="4">
+        <v>37398</v>
+      </c>
+      <c r="H33" s="4">
+        <v>6358</v>
+      </c>
+      <c r="I33" s="4">
+        <v>20756</v>
+      </c>
+      <c r="J33" s="4">
+        <v>68493</v>
+      </c>
+      <c r="K33" s="4">
+        <v>23533</v>
+      </c>
+      <c r="L33" s="3">
+        <v>808</v>
+      </c>
+      <c r="M33" s="4">
+        <v>22373</v>
+      </c>
+      <c r="N33" s="4">
+        <v>323626</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="1"/>
+        <v>68341</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="2"/>
+        <v>92026</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="3"/>
+        <v>90720</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="4"/>
+        <v>22373</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="5"/>
+        <v>50167</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="6"/>
+        <v>323627</v>
+      </c>
+      <c r="V33" s="3">
+        <f t="shared" si="7"/>
+        <v>68341000</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="8"/>
+        <v>92026000</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="9"/>
+        <v>90720000</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="10"/>
+        <v>22373000</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="11"/>
+        <v>50167000</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" si="12"/>
+        <v>323627000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2004</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>46917</v>
+      </c>
+      <c r="C34" s="4">
+        <v>55344</v>
+      </c>
+      <c r="D34" s="3">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4">
+        <v>85076</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4012</v>
+      </c>
+      <c r="G34" s="4">
+        <v>42986</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5862</v>
+      </c>
+      <c r="I34" s="4">
+        <v>21859</v>
+      </c>
+      <c r="J34" s="4">
+        <v>74718</v>
+      </c>
+      <c r="K34" s="4">
+        <v>37716</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1101</v>
+      </c>
+      <c r="M34" s="4">
+        <v>24719</v>
+      </c>
+      <c r="N34" s="4">
+        <v>325670</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="1"/>
+        <v>55424</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="2"/>
+        <v>112434</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="3"/>
+        <v>86177</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="4"/>
+        <v>24719</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="5"/>
+        <v>46917</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="6"/>
+        <v>325671</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="7"/>
+        <v>55424000</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="8"/>
+        <v>112434000</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" si="9"/>
+        <v>86177000</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="10"/>
+        <v>24719000</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="11"/>
+        <v>46917000</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="12"/>
+        <v>325671000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2005</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>43920</v>
+      </c>
+      <c r="C35" s="4">
+        <v>65744</v>
+      </c>
+      <c r="D35" s="3">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4">
+        <v>86277</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3851</v>
+      </c>
+      <c r="G35" s="4">
+        <v>39929</v>
+      </c>
+      <c r="H35" s="4">
+        <v>4843</v>
+      </c>
+      <c r="I35" s="4">
+        <v>15617</v>
+      </c>
+      <c r="J35" s="4">
+        <v>64239</v>
+      </c>
+      <c r="K35" s="4">
+        <v>29614</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1131</v>
+      </c>
+      <c r="M35" s="4">
+        <v>26021</v>
+      </c>
+      <c r="N35" s="4">
+        <v>317040</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="1"/>
+        <v>65838</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="2"/>
+        <v>93853</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="3"/>
+        <v>87408</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="4"/>
+        <v>26021</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="5"/>
+        <v>43920</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="6"/>
+        <v>317040</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="7"/>
+        <v>65838000</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="8"/>
+        <v>93853000</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" si="9"/>
+        <v>87408000</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="10"/>
+        <v>26021000</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="11"/>
+        <v>43920000</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" si="12"/>
+        <v>317040000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2006</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>46676</v>
+      </c>
+      <c r="C36" s="4">
+        <v>89043</v>
+      </c>
+      <c r="D36" s="3">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4">
+        <v>82845</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3394</v>
+      </c>
+      <c r="G36" s="4">
+        <v>35027</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2627</v>
+      </c>
+      <c r="I36" s="4">
+        <v>16154</v>
+      </c>
+      <c r="J36" s="4">
+        <v>57203</v>
+      </c>
+      <c r="K36" s="4">
+        <v>41126</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1453</v>
+      </c>
+      <c r="M36" s="4">
+        <v>26736</v>
+      </c>
+      <c r="N36" s="4">
+        <v>345178</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="1"/>
+        <v>89137</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="2"/>
+        <v>98329</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="3"/>
+        <v>84298</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="4"/>
+        <v>26736</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="5"/>
+        <v>46676</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="6"/>
+        <v>345176</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="7"/>
+        <v>89137000</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="8"/>
+        <v>98329000</v>
+      </c>
+      <c r="X36" s="3">
+        <f t="shared" si="9"/>
+        <v>84298000</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="10"/>
+        <v>26736000</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="11"/>
+        <v>46676000</v>
+      </c>
+      <c r="AA36" s="3">
+        <f t="shared" si="12"/>
+        <v>345176000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2007</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>42108</v>
+      </c>
+      <c r="C37" s="4">
+        <v>121904</v>
+      </c>
+      <c r="D37" s="3">
+        <v>89</v>
+      </c>
+      <c r="E37" s="4">
+        <v>79723</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3352</v>
+      </c>
+      <c r="G37" s="4">
+        <v>33787</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1422</v>
+      </c>
+      <c r="I37" s="4">
+        <v>13856</v>
+      </c>
+      <c r="J37" s="4">
+        <v>52418</v>
+      </c>
+      <c r="K37" s="4">
+        <v>39873</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1242</v>
+      </c>
+      <c r="M37" s="4">
+        <v>28077</v>
+      </c>
+      <c r="N37" s="4">
+        <v>365434</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="1"/>
+        <v>121993</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="2"/>
+        <v>92291</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="3"/>
+        <v>80965</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="4"/>
+        <v>28077</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="5"/>
+        <v>42108</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="6"/>
+        <v>365434</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="7"/>
+        <v>121993000</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="8"/>
+        <v>92291000</v>
+      </c>
+      <c r="X37" s="3">
+        <f t="shared" si="9"/>
+        <v>80965000</v>
+      </c>
+      <c r="Y37" s="3">
+        <f t="shared" si="10"/>
+        <v>28077000</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" si="11"/>
+        <v>42108000</v>
+      </c>
+      <c r="AA37" s="3">
+        <f t="shared" si="12"/>
+        <v>365434000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2008</v>
       </c>
@@ -1690,16 +2704,67 @@
         <v>61118</v>
       </c>
       <c r="K38" s="4">
+        <v>16658</v>
+      </c>
+      <c r="L38" s="4">
         <v>1127</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>29405</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>320302</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <f t="shared" si="1"/>
+        <v>94190</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
+        <v>77776</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="3"/>
+        <v>91354</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="4"/>
+        <v>29405</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="5"/>
+        <v>44235</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="6"/>
+        <v>336960</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="7"/>
+        <v>94190000</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="8"/>
+        <v>77776000</v>
+      </c>
+      <c r="X38" s="3">
+        <f t="shared" si="9"/>
+        <v>91354000</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="10"/>
+        <v>29405000</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="11"/>
+        <v>44235000</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" si="12"/>
+        <v>336960000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2009</v>
       </c>
@@ -1730,17 +2795,68 @@
       <c r="J39" s="4">
         <v>59451</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="4">
+        <v>55663</v>
+      </c>
+      <c r="L39" s="3">
         <v>588</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>28323</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>304791</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P39" s="4">
+        <f t="shared" si="1"/>
+        <v>82807</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="2"/>
+        <v>115114</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="3"/>
+        <v>89689</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="4"/>
+        <v>28323</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="5"/>
+        <v>44521</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="6"/>
+        <v>360454</v>
+      </c>
+      <c r="V39" s="3">
+        <f t="shared" si="7"/>
+        <v>82807000</v>
+      </c>
+      <c r="W39" s="3">
+        <f t="shared" si="8"/>
+        <v>115114000</v>
+      </c>
+      <c r="X39" s="3">
+        <f t="shared" si="9"/>
+        <v>89689000</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="10"/>
+        <v>28323000</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="11"/>
+        <v>44521000</v>
+      </c>
+      <c r="AA39" s="3">
+        <f t="shared" si="12"/>
+        <v>360454000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2010</v>
       </c>
@@ -1771,17 +2887,41 @@
       <c r="J40" s="4">
         <v>50473</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4">
+        <v>55765</v>
+      </c>
+      <c r="L40" s="3">
         <v>655</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>31254</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>349040</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P40" s="4">
+        <f t="shared" si="1"/>
+        <v>137612</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="2"/>
+        <v>106238</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="3"/>
+        <v>86384</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="4"/>
+        <v>31254</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="5"/>
+        <v>43317</v>
+      </c>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2011</v>
       </c>
@@ -1812,17 +2952,41 @@
       <c r="J41" s="4">
         <v>60089</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
+        <v>69978</v>
+      </c>
+      <c r="L41" s="3">
         <v>623</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>33547</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>375210</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P41" s="4">
+        <f t="shared" si="1"/>
+        <v>144623</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="2"/>
+        <v>130067</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="3"/>
+        <v>91965</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="4"/>
+        <v>33547</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="5"/>
+        <v>43724</v>
+      </c>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2012</v>
       </c>
@@ -1853,17 +3017,41 @@
       <c r="J42" s="4">
         <v>70713</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="4">
+        <v>81934</v>
+      </c>
+      <c r="L42" s="3">
         <v>621</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>36888</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>369705</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P42" s="4">
+        <f t="shared" si="1"/>
+        <v>123152</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="2"/>
+        <v>152647</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="3"/>
+        <v>94634</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="4"/>
+        <v>36888</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="5"/>
+        <v>42732</v>
+      </c>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2013</v>
       </c>
@@ -1894,17 +3082,41 @@
       <c r="J43" s="4">
         <v>59328</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="4">
+        <v>66161</v>
+      </c>
+      <c r="L43" s="3">
         <v>693</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>39466</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>283561</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P43" s="4">
+        <f t="shared" si="1"/>
+        <v>42859</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="2"/>
+        <v>125489</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="3"/>
+        <v>96124</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="4"/>
+        <v>39466</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="5"/>
+        <v>44399</v>
+      </c>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2014</v>
       </c>
@@ -1935,17 +3147,41 @@
       <c r="J44" s="4">
         <v>54108</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="4">
+        <v>67697</v>
+      </c>
+      <c r="L44" s="3">
         <v>753</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>40402</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>291221</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P44" s="4">
+        <f t="shared" si="1"/>
+        <v>55122</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="2"/>
+        <v>121805</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="3"/>
+        <v>94983</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="4"/>
+        <v>40402</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="5"/>
+        <v>45188</v>
+      </c>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2015</v>
       </c>
@@ -1976,17 +3212,39 @@
       <c r="J45" s="4">
         <v>61859</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
         <v>788</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>39281</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>310592</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P45" s="4">
+        <f t="shared" si="1"/>
+        <v>70278</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="2"/>
+        <v>61859</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="3"/>
+        <v>92938</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" si="4"/>
+        <v>39281</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="5"/>
+        <v>44828</v>
+      </c>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2016</v>
       </c>
@@ -2017,17 +3275,39 @@
       <c r="J46" s="4">
         <v>40938</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
         <v>821</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>41773</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>266940</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P46" s="4">
+        <f t="shared" si="1"/>
+        <v>63611</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="2"/>
+        <v>40938</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="3"/>
+        <v>76641</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="4"/>
+        <v>41773</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="5"/>
+        <v>43977</v>
+      </c>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2017</v>
       </c>
@@ -2058,17 +3338,39 @@
       <c r="J47" s="4">
         <v>45491</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
         <v>888</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>44282</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>281461</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P47" s="4">
+        <f t="shared" si="1"/>
+        <v>58907</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="2"/>
+        <v>45491</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="3"/>
+        <v>88444</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="4"/>
+        <v>44282</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="5"/>
+        <v>44337</v>
+      </c>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -2099,56 +3401,78 @@
       <c r="J48" s="4">
         <v>37073</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
         <v>934</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>57337</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>334467</v>
       </c>
+      <c r="P48" s="4">
+        <f t="shared" si="1"/>
+        <v>100542</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="2"/>
+        <v>37073</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="3"/>
+        <v>96111</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="4"/>
+        <v>57337</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="5"/>
+        <v>43405</v>
+      </c>
+      <c r="U48" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="15" t="s">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3"/>
@@ -2156,10 +3480,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2172,8 +3496,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2531,7 +3855,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="46">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="B3:B4"/>
@@ -2540,8 +3864,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A27:A29"/>
@@ -2554,14 +3876,32 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B29:M29"/>
     <mergeCell ref="A51:M51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="I52:I53"/>
     <mergeCell ref="D52:D53"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="V29:AA29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2569,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078D60BA-49DA-43DF-A10A-43D7900A8D4A}">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,18 +3920,23 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2890,19 +4235,37 @@
         <v>102712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="K17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2927,554 +4290,1516 @@
       <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="4">
+        <v>208610</v>
+      </c>
+      <c r="D19" s="3">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>63216</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5932</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>18735</v>
+      </c>
+      <c r="I19" s="4">
+        <v>296573</v>
+      </c>
+      <c r="K19" s="35">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>(E19)*1000</f>
+        <v>63216000</v>
+      </c>
+      <c r="M19">
+        <f>(F19+D19)*1000</f>
+        <v>6013000</v>
+      </c>
+      <c r="N19">
+        <f>H19*1000</f>
+        <v>18735000</v>
+      </c>
+      <c r="O19">
+        <f>(G19+C19)*1000</f>
+        <v>208610000</v>
+      </c>
+      <c r="P19" s="1">
+        <f>SUM(L19:O19)</f>
+        <v>296574000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>2008</v>
       </c>
-      <c r="C19" s="4">
-        <v>68422</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C20" s="4">
+        <v>232244</v>
+      </c>
+      <c r="D20" s="3">
         <v>131</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>40096</v>
       </c>
-      <c r="F19" s="4">
-        <v>13487</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F20" s="4">
+        <v>13568</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>30763</v>
       </c>
-      <c r="I19" s="4">
-        <v>152899</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="I20" s="4">
+        <v>316802</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>(E20)*1000</f>
+        <v>40096000</v>
+      </c>
+      <c r="M20">
+        <f>(F20+D20)*1000</f>
+        <v>13699000</v>
+      </c>
+      <c r="N20">
+        <f>I20*1000</f>
+        <v>316802000</v>
+      </c>
+      <c r="O20">
+        <f>(H20+C20)*1000</f>
+        <v>263007000</v>
+      </c>
+      <c r="P20" s="1">
+        <f>SUM(L20:O20)</f>
+        <v>633604000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>2009</v>
       </c>
-      <c r="C20" s="4">
-        <v>63082</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C21" s="4">
+        <v>233261</v>
+      </c>
+      <c r="D21" s="3">
         <v>130</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>24255</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>22767</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G21" s="36">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>33682</v>
       </c>
-      <c r="I20" s="4">
-        <v>143915</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="I21" s="4">
+        <v>314094</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>2010</v>
       </c>
-      <c r="C21" s="4">
-        <v>63067</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C22" s="4">
+        <v>228915</v>
+      </c>
+      <c r="D22" s="3">
         <v>135</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>14439</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>30386</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G22" s="36">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>36673</v>
       </c>
-      <c r="I21" s="4">
-        <v>144700</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="I22" s="4">
+        <v>310548</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>2011</v>
       </c>
-      <c r="C22" s="4">
-        <v>60143</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C23" s="4">
+        <v>237929</v>
+      </c>
+      <c r="D23" s="3">
         <v>114</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>10072</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>35326</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <v>39914</v>
       </c>
-      <c r="I22" s="4">
-        <v>145570</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C23" s="4">
-        <v>55139</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="I23" s="4">
+        <v>323356</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4">
+        <v>256594</v>
+      </c>
+      <c r="D24" s="3">
         <v>134</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>7015</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>41123</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G24" s="36">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>44217</v>
       </c>
-      <c r="I23" s="4">
-        <v>147629</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C24" s="4">
-        <v>49527</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="I24" s="4">
+        <v>349084</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4">
+        <v>260328</v>
+      </c>
+      <c r="D25" s="3">
         <v>122</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>6396</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>45839</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G25" s="36">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>47330</v>
       </c>
-      <c r="I24" s="4">
-        <v>149215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="I25" s="4">
+        <v>360016</v>
+      </c>
+      <c r="K25" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>2014</v>
       </c>
-      <c r="C25" s="4">
-        <v>46207</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C26" s="4">
+        <v>263495</v>
+      </c>
+      <c r="D26" s="3">
         <v>114</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <v>4929</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>49810</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G26" s="36">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <v>51545</v>
       </c>
-      <c r="I25" s="4">
-        <v>152605</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C26" s="4">
-        <v>38468</v>
-      </c>
-      <c r="D26" s="3">
-        <v>116</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3903</v>
-      </c>
-      <c r="F26" s="4">
-        <v>52130</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>54362</v>
-      </c>
       <c r="I26" s="4">
-        <v>148980</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C27" s="4">
-        <v>34387</v>
-      </c>
-      <c r="D27" s="3">
-        <v>137</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3038</v>
-      </c>
-      <c r="F27" s="4">
-        <v>54302</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>57398</v>
-      </c>
-      <c r="I27" s="4">
-        <v>149262</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C28" s="4">
-        <v>29050</v>
-      </c>
-      <c r="D28" s="3">
-        <v>177</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3114</v>
-      </c>
-      <c r="F28" s="4">
-        <v>58783</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>57902</v>
-      </c>
-      <c r="I28" s="4">
-        <v>149026</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C29" s="4">
-        <v>23020</v>
-      </c>
-      <c r="D29" s="3">
-        <v>203</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3043</v>
-      </c>
-      <c r="F29" s="4">
-        <v>61819</v>
-      </c>
-      <c r="G29" s="3">
-        <v>167</v>
-      </c>
-      <c r="H29" s="4">
-        <v>62963</v>
-      </c>
-      <c r="I29" s="4">
-        <v>151214</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>369893</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="K28" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>2008</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D33" s="3">
-        <v>47.46</v>
-      </c>
-      <c r="E33" s="3">
-        <v>15.97</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>36.42</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C34" s="3">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D34" s="3">
-        <v>30.01</v>
+        <v>47.46</v>
       </c>
       <c r="E34" s="3">
-        <v>28.17</v>
+        <v>15.97</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>41.67</v>
+        <v>36.42</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C35" s="3">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D35" s="3">
-        <v>17.690000000000001</v>
+        <v>30.01</v>
       </c>
       <c r="E35" s="3">
-        <v>37.22</v>
+        <v>28.17</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>44.92</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="3">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="D36" s="3">
-        <v>11.79</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>41.35</v>
+        <v>37.22</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>46.72</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C37" s="3">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D37" s="3">
-        <v>7.58</v>
+        <v>11.79</v>
       </c>
       <c r="E37" s="3">
-        <v>44.46</v>
+        <v>41.35</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>47.81</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C38" s="3">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D38" s="3">
-        <v>6.42</v>
+        <v>7.58</v>
       </c>
       <c r="E38" s="3">
-        <v>45.98</v>
+        <v>44.46</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>47.48</v>
+        <v>47.81</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C39" s="3">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D39" s="3">
-        <v>4.63</v>
+        <v>6.42</v>
       </c>
       <c r="E39" s="3">
-        <v>46.81</v>
+        <v>45.98</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>48.45</v>
+        <v>47.48</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C40" s="3">
         <v>0.11</v>
       </c>
       <c r="D40" s="3">
-        <v>3.53</v>
+        <v>4.63</v>
       </c>
       <c r="E40" s="3">
-        <v>47.17</v>
+        <v>46.81</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>49.19</v>
+        <v>48.45</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C41" s="3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D41" s="3">
-        <v>2.64</v>
+        <v>3.53</v>
       </c>
       <c r="E41" s="3">
-        <v>47.27</v>
+        <v>47.17</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>49.97</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C42" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D42" s="3">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="E42" s="3">
-        <v>49</v>
+        <v>47.27</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>48.26</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E43" s="3">
+        <v>49</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <v>2018</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C44" s="3">
         <v>0.16</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
         <v>2.37</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>48.22</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>0.13</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="3">
         <v>49.12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A818CB-55A4-4881-B1AD-A9F831D01238}">
+  <dimension ref="B2:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1452</v>
+      </c>
+      <c r="D4" s="3">
+        <v>134</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3491</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5352</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8886</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1257</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8943</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20670</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>SUM(E4:G4)*1000</f>
+        <v>8886000</v>
+      </c>
+      <c r="O4" s="4">
+        <f>(I4+D4)*1000</f>
+        <v>1391000</v>
+      </c>
+      <c r="P4" s="3">
+        <f>J4*1000</f>
+        <v>8943000</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>C4*1000</f>
+        <v>1452000</v>
+      </c>
+      <c r="R4" s="3">
+        <f>SUM(M4:Q4)*1000</f>
+        <v>20672000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1444</v>
+      </c>
+      <c r="D5" s="3">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3442</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5682</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9165</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1138</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9555</v>
+      </c>
+      <c r="K5" s="4">
+        <v>21450</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N18" si="0">SUM(E5:G5)*1000</f>
+        <v>9166000</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O18" si="1">(I5+D5)*1000</f>
+        <v>1285000</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P18" si="2">J5*1000</f>
+        <v>9555000</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q18" si="3">C5*1000</f>
+        <v>1444000</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R18" si="4">SUM(M5:Q5)*1000</f>
+        <v>21450000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1437</v>
+      </c>
+      <c r="D6" s="3">
+        <v>164</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3272</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5591</v>
+      </c>
+      <c r="G6" s="3">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8903</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1279</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9970</v>
+      </c>
+      <c r="K6" s="4">
+        <v>21752</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>8902000</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>1443000</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>9970000</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>1437000</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>21752000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1430</v>
+      </c>
+      <c r="D7" s="3">
+        <v>158</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3293</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5385</v>
+      </c>
+      <c r="G7" s="3">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8712</v>
+      </c>
+      <c r="I7" s="3">
+        <v>946</v>
+      </c>
+      <c r="J7" s="4">
+        <v>11151</v>
+      </c>
+      <c r="K7" s="4">
+        <v>22397</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>8712000</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>1104000</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>11151000</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>1430000</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>22397000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1423</v>
+      </c>
+      <c r="D8" s="3">
+        <v>174</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3319</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6190</v>
+      </c>
+      <c r="G8" s="3">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9540</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1288</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12986</v>
+      </c>
+      <c r="K8" s="4">
+        <v>25412</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>9540000</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>1462000</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>12986000</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>1423000</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>25411000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1416</v>
+      </c>
+      <c r="D9" s="3">
+        <v>190</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3186</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5749</v>
+      </c>
+      <c r="G9" s="3">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8961</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1324</v>
+      </c>
+      <c r="J9" s="4">
+        <v>14344</v>
+      </c>
+      <c r="K9" s="4">
+        <v>26235</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>8961000</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>1514000</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>14344000</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
+        <v>1416000</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>26235000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1409</v>
+      </c>
+      <c r="D10" s="3">
+        <v>206</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2809</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5044</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7866</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1241</v>
+      </c>
+      <c r="J10" s="4">
+        <v>15473</v>
+      </c>
+      <c r="K10" s="4">
+        <v>26195</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>7867000</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>1447000</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>15473000</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>1409000</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>26196000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1402</v>
+      </c>
+      <c r="D11" s="3">
+        <v>274</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2774</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4865</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7646</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1337</v>
+      </c>
+      <c r="J11" s="4">
+        <v>17237</v>
+      </c>
+      <c r="K11" s="4">
+        <v>27896</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>7647000</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>1611000</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>17237000</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>1402000</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>27897000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1395</v>
+      </c>
+      <c r="D12" s="3">
+        <v>357</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2214</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5357</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7576</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1025</v>
+      </c>
+      <c r="J12" s="4">
+        <v>18921</v>
+      </c>
+      <c r="K12" s="4">
+        <v>29274</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>7576000</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>1382000</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>18921000</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="3"/>
+        <v>1395000</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>29274000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1388</v>
+      </c>
+      <c r="D13" s="3">
+        <v>730</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1339</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5931</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7275</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1029</v>
+      </c>
+      <c r="J13" s="4">
+        <v>20426</v>
+      </c>
+      <c r="K13" s="4">
+        <v>30848</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>7274000</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>1759000</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>20426000</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>1388000</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>30847000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1381</v>
+      </c>
+      <c r="D14" s="3">
+        <v>963</v>
+      </c>
+      <c r="E14" s="3">
+        <v>797</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6224</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7027</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1026</v>
+      </c>
+      <c r="J14" s="4">
+        <v>22726</v>
+      </c>
+      <c r="K14" s="4">
+        <v>33122</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>7026000</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="1"/>
+        <v>1989000</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>22726000</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>1381000</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>33122000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1374</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1290</v>
+      </c>
+      <c r="E15" s="3">
+        <v>556</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5257</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5817</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1112</v>
+      </c>
+      <c r="J15" s="4">
+        <v>23390</v>
+      </c>
+      <c r="K15" s="4">
+        <v>32982</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>5817000</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>2402000</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>23390000</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>1374000</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>32983000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1367</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1625</v>
+      </c>
+      <c r="E16" s="3">
+        <v>387</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5195</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5584</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1139</v>
+      </c>
+      <c r="J16" s="4">
+        <v>25485</v>
+      </c>
+      <c r="K16" s="4">
+        <v>35200</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>5585000</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>2764000</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>25485000</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>1367000</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>35201000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1360</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1422</v>
+      </c>
+      <c r="E17" s="3">
+        <v>353</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4814</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5169</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1269</v>
+      </c>
+      <c r="J17" s="4">
+        <v>28088</v>
+      </c>
+      <c r="K17" s="4">
+        <v>37308</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>5169000</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>2691000</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>28088000</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>1360000</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>37308000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1353</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1447</v>
+      </c>
+      <c r="E18" s="3">
+        <v>272</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3958</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4232</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1379</v>
+      </c>
+      <c r="J18" s="4">
+        <v>29701</v>
+      </c>
+      <c r="K18" s="4">
+        <v>38113</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>4232000</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>2826000</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>29701000</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
+        <v>1353000</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="4"/>
+        <v>38112000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573DB0D2-3759-4445-ADCD-FDCC865A94E4}">
   <dimension ref="C2:T46"/>
   <sheetViews>
@@ -3495,85 +5820,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>8</v>
@@ -3582,34 +5907,34 @@
         <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
@@ -4198,89 +6523,89 @@
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="C18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>8</v>
@@ -4289,13 +6614,13 @@
         <v>9</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
@@ -4914,89 +7239,89 @@
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
+      <c r="C33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>8</v>
@@ -5005,13 +7330,13 @@
         <v>9</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
@@ -5621,7 +7946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C1DE-A7AD-443A-91E0-44E65BDF3EDE}">
   <dimension ref="C2:W15"/>
   <sheetViews>
@@ -5642,119 +7967,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="20"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="15"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
@@ -6473,8 +8798,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
@@ -6492,12 +8815,14 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A65A2B-8990-4806-ABEE-8DB28982DAA3}">
   <dimension ref="C2:J28"/>
   <sheetViews>
@@ -6515,17 +8840,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
@@ -6533,19 +8858,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>20</v>
@@ -6838,22 +9163,22 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>20</v>
@@ -7023,11 +9348,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D669443A-3E09-4944-906E-A5B09966FBDB}">
   <dimension ref="A2:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E73" sqref="E73"/>
     </sheetView>
@@ -7056,74 +9381,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="S2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="S2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>24</v>
@@ -7132,10 +9457,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>4</v>
@@ -7144,35 +9469,35 @@
         <v>21</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="S4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="S4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -8505,82 +10830,82 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="15" t="s">
+      <c r="Q26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="15" t="s">
+      <c r="T26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="T26" s="20" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -8593,42 +10918,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="20"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="15"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -9866,64 +12191,64 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="s">
+      <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15" t="s">
+      <c r="G51" s="16"/>
+      <c r="H51" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">

--- a/HEESI/HEESI.xlsx
+++ b/HEESI/HEESI.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\HEESI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\System Dynamics\system_dynamics_reference\HEESI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D877F4-9427-464C-A360-06C82BCD09F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991B8B9C-3970-449E-8F80-3C859162E414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3555" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Industry" sheetId="1" r:id="rId1"/>
     <sheet name="Household" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="7" r:id="rId3"/>
     <sheet name="Transportation" sheetId="3" r:id="rId4"/>
-    <sheet name="Refinery" sheetId="4" r:id="rId5"/>
-    <sheet name="Natural Gas" sheetId="5" r:id="rId6"/>
-    <sheet name="Power Plant" sheetId="6" r:id="rId7"/>
+    <sheet name="Others" sheetId="8" r:id="rId5"/>
+    <sheet name="Refinery" sheetId="4" r:id="rId6"/>
+    <sheet name="Natural Gas" sheetId="5" r:id="rId7"/>
+    <sheet name="Power Plant" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="111">
   <si>
     <t>Year</t>
   </si>
@@ -338,6 +339,39 @@
   <si>
     <t>ADO</t>
   </si>
+  <si>
+    <t>Mogas</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>biofuel and waste</t>
+  </si>
+  <si>
+    <t>biofuel, waste</t>
+  </si>
+  <si>
+    <t>coal based</t>
+  </si>
+  <si>
+    <t>petrol based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat gas based </t>
+  </si>
+  <si>
+    <t>renewable based</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,9 +575,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,30 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,12 +634,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -881,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA64"/>
+  <dimension ref="A2:AH64"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27:AA28"/>
+    <sheetView topLeftCell="L10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,63 +952,67 @@
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -979,28 +1028,28 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1508,7 @@
         <v>50985</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2011</v>
       </c>
@@ -1500,7 +1549,7 @@
         <v>54725</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2012</v>
       </c>
@@ -1541,7 +1590,7 @@
         <v>60176</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2013</v>
       </c>
@@ -1582,7 +1631,7 @@
         <v>64381</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2014</v>
       </c>
@@ -1623,7 +1672,7 @@
         <v>65909</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2015</v>
       </c>
@@ -1661,7 +1710,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2016</v>
       </c>
@@ -1699,7 +1748,7 @@
         <v>68145</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2017</v>
       </c>
@@ -1737,7 +1786,7 @@
         <v>72238</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2018</v>
       </c>
@@ -1775,101 +1824,122 @@
         <v>93535</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="AC26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="26" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="U27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" s="15" t="s">
+      <c r="Z27" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AA27" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="AC27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE27" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH27" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1885,58 +1955,64 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="16"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="20"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="20"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="P29" s="16" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="P29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16" t="s">
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2000</v>
       </c>
@@ -2027,8 +2103,32 @@
         <f t="shared" si="0"/>
         <v>292289000</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC30">
+        <f>V30/$AA30</f>
+        <v>0.12366185521863635</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ref="AD30:AH30" si="1">W30/$AA30</f>
+        <v>0.3024882906985894</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>0.30072633592095493</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="1"/>
+        <v>7.133350895859919E-2</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>0.2017900092032201</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2001</v>
       </c>
@@ -2072,55 +2172,55 @@
         <v>300683</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:P48" si="1">C31+D31</f>
+        <f t="shared" ref="P31:P48" si="2">C31+D31</f>
         <v>37099</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" ref="Q31:Q48" si="2">K31+J31</f>
+        <f t="shared" ref="Q31:Q48" si="3">K31+J31</f>
         <v>103745</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" ref="R31:R48" si="3">L31+E31</f>
+        <f t="shared" ref="R31:R48" si="4">L31+E31</f>
         <v>82833</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" ref="S31:S48" si="4">+M31</f>
+        <f t="shared" ref="S31:S48" si="5">+M31</f>
         <v>21819</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" ref="T31:T48" si="5">B31</f>
+        <f t="shared" ref="T31:T48" si="6">B31</f>
         <v>55186</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" ref="U31:U39" si="6">SUM(P31:T31)</f>
+        <f t="shared" ref="U31:U40" si="7">SUM(P31:T31)</f>
         <v>300682</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" ref="V31:V39" si="7">P31*1000</f>
+        <f t="shared" ref="V31:V40" si="8">P31*1000</f>
         <v>37099000</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" ref="W31:W39" si="8">Q31*1000</f>
+        <f t="shared" ref="W31:W40" si="9">Q31*1000</f>
         <v>103745000</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" ref="X31:X39" si="9">R31*1000</f>
+        <f t="shared" ref="X31:X40" si="10">R31*1000</f>
         <v>82833000</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" ref="Y31:Y39" si="10">S31*1000</f>
+        <f t="shared" ref="Y31:Y40" si="11">S31*1000</f>
         <v>21819000</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" ref="Z31:Z39" si="11">T31*1000</f>
+        <f t="shared" ref="Z31:Z40" si="12">T31*1000</f>
         <v>55186000</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" ref="AA31:AA39" si="12">U31*1000</f>
+        <f t="shared" ref="AA31:AA40" si="13">U31*1000</f>
         <v>300682000</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2002</v>
       </c>
@@ -2164,51 +2264,51 @@
         <v>293643</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38781</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98378</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81601</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22578</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52305</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293643</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38781000</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98378000</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81601000</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22578000</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52305000</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>293643000</v>
       </c>
     </row>
@@ -2256,51 +2356,51 @@
         <v>323626</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68341</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92026</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90720</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22373</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50167</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>323627</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68341000</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92026000</v>
       </c>
       <c r="X33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>90720000</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22373000</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50167000</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>323627000</v>
       </c>
     </row>
@@ -2348,51 +2448,51 @@
         <v>325670</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55424</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112434</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86177</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24719</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46917</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>325671</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55424000</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>112434000</v>
       </c>
       <c r="X34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>86177000</v>
       </c>
       <c r="Y34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24719000</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46917000</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>325671000</v>
       </c>
     </row>
@@ -2440,51 +2540,51 @@
         <v>317040</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65838</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93853</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87408</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26021</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43920</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>317040</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65838000</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>93853000</v>
       </c>
       <c r="X35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>87408000</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26021000</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43920000</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>317040000</v>
       </c>
     </row>
@@ -2532,51 +2632,51 @@
         <v>345178</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89137</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98329</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84298</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26736</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46676</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>345176</v>
       </c>
       <c r="V36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89137000</v>
       </c>
       <c r="W36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98329000</v>
       </c>
       <c r="X36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84298000</v>
       </c>
       <c r="Y36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>26736000</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46676000</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>345176000</v>
       </c>
     </row>
@@ -2624,51 +2724,51 @@
         <v>365434</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121993</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92291</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80965</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28077</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42108</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>365434</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>121993000</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92291000</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80965000</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28077000</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42108000</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>365434000</v>
       </c>
     </row>
@@ -2716,51 +2816,51 @@
         <v>320302</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94190</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77776</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91354</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29405</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44235</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>336960</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>94190000</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77776000</v>
       </c>
       <c r="X38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>91354000</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29405000</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44235000</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>336960000</v>
       </c>
     </row>
@@ -2808,51 +2908,51 @@
         <v>304791</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82807</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115114</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89689</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28323</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44521</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360454</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82807000</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>115114000</v>
       </c>
       <c r="X39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89689000</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28323000</v>
       </c>
       <c r="Z39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44521000</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>360454000</v>
       </c>
     </row>
@@ -2900,26 +3000,53 @@
         <v>349040</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137612</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106238</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86384</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31254</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43317</v>
       </c>
-      <c r="U40" s="4"/>
+      <c r="U40" s="4">
+        <f t="shared" si="7"/>
+        <v>404805</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="8"/>
+        <v>137612000</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="9"/>
+        <v>106238000</v>
+      </c>
+      <c r="X40" s="3">
+        <f t="shared" si="10"/>
+        <v>86384000</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="11"/>
+        <v>31254000</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="12"/>
+        <v>43317000</v>
+      </c>
+      <c r="AA40" s="3">
+        <f t="shared" si="13"/>
+        <v>404805000</v>
+      </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -2965,23 +3092,23 @@
         <v>375210</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144623</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130067</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91965</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33547</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43724</v>
       </c>
       <c r="U41" s="4"/>
@@ -3030,23 +3157,23 @@
         <v>369705</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123152</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152647</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94634</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36888</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42732</v>
       </c>
       <c r="U42" s="4"/>
@@ -3095,23 +3222,23 @@
         <v>283561</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42859</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125489</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96124</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39466</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44399</v>
       </c>
       <c r="U43" s="4"/>
@@ -3160,23 +3287,23 @@
         <v>291221</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55122</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121805</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94983</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40402</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45188</v>
       </c>
       <c r="U44" s="4"/>
@@ -3223,23 +3350,23 @@
         <v>310592</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70278</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61859</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92938</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39281</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="U45" s="3"/>
@@ -3286,23 +3413,23 @@
         <v>266940</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63611</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40938</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76641</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41773</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43977</v>
       </c>
       <c r="U46" s="3"/>
@@ -3349,23 +3476,23 @@
         <v>281461</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58907</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45491</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88444</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44282</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44337</v>
       </c>
       <c r="U47" s="3"/>
@@ -3412,67 +3539,67 @@
         <v>334467</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100542</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37073</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96111</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57337</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43405</v>
       </c>
       <c r="U48" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="16" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3"/>
@@ -3480,10 +3607,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3496,8 +3623,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3855,7 +3982,50 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="52">
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AF27:AF28"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="B3:B4"/>
@@ -3865,43 +4035,6 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="V29:AA29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3909,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078D60BA-49DA-43DF-A10A-43D7900A8D4A}">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B2:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:P18"/>
+    <sheetView topLeftCell="G1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,25 +4053,65 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2">
+        <v>63216000</v>
+      </c>
+      <c r="M2">
+        <v>62329000</v>
+      </c>
+      <c r="N2">
+        <v>59261000</v>
+      </c>
+      <c r="O2">
+        <v>59640000</v>
+      </c>
+      <c r="P2">
+        <v>60112000</v>
+      </c>
+      <c r="Q2">
+        <v>57696000</v>
+      </c>
+      <c r="R2">
+        <v>50862000</v>
+      </c>
+      <c r="S2">
+        <v>50229000</v>
+      </c>
+      <c r="T2">
+        <v>40096000</v>
+      </c>
+      <c r="U2">
+        <v>24255000</v>
+      </c>
+      <c r="V2">
+        <v>14439000</v>
+      </c>
+      <c r="W2">
+        <v>10072000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3960,8 +4133,47 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3">
+        <v>6013000</v>
+      </c>
+      <c r="M3">
+        <v>6257000</v>
+      </c>
+      <c r="N3">
+        <v>6469000</v>
+      </c>
+      <c r="O3">
+        <v>7112000</v>
+      </c>
+      <c r="P3">
+        <v>6922000</v>
+      </c>
+      <c r="Q3">
+        <v>6122000</v>
+      </c>
+      <c r="R3">
+        <v>6847000</v>
+      </c>
+      <c r="S3">
+        <v>8477000</v>
+      </c>
+      <c r="T3">
+        <v>13699000</v>
+      </c>
+      <c r="U3">
+        <v>22897000</v>
+      </c>
+      <c r="V3">
+        <v>30521000</v>
+      </c>
+      <c r="W3">
+        <v>35440000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -3981,8 +4193,47 @@
       <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4">
+        <v>18735000</v>
+      </c>
+      <c r="M4">
+        <v>20437000</v>
+      </c>
+      <c r="N4">
+        <v>20838000</v>
+      </c>
+      <c r="O4">
+        <v>21917000</v>
+      </c>
+      <c r="P4">
+        <v>23655000</v>
+      </c>
+      <c r="Q4">
+        <v>25246000</v>
+      </c>
+      <c r="R4">
+        <v>26821000</v>
+      </c>
+      <c r="S4">
+        <v>29010000</v>
+      </c>
+      <c r="T4">
+        <v>30763000</v>
+      </c>
+      <c r="U4">
+        <v>33682000</v>
+      </c>
+      <c r="V4">
+        <v>36673000</v>
+      </c>
+      <c r="W4">
+        <v>39914000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
@@ -4004,8 +4255,47 @@
       <c r="H5" s="4">
         <v>50184</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5">
+        <v>208610000</v>
+      </c>
+      <c r="M5">
+        <v>212323000</v>
+      </c>
+      <c r="N5">
+        <v>216465000</v>
+      </c>
+      <c r="O5">
+        <v>220377000</v>
+      </c>
+      <c r="P5">
+        <v>223425000</v>
+      </c>
+      <c r="Q5">
+        <v>224707000</v>
+      </c>
+      <c r="R5">
+        <v>228186000</v>
+      </c>
+      <c r="S5">
+        <v>231616000</v>
+      </c>
+      <c r="T5">
+        <v>232244000</v>
+      </c>
+      <c r="U5">
+        <v>233261000</v>
+      </c>
+      <c r="V5">
+        <v>228915000</v>
+      </c>
+      <c r="W5">
+        <v>237929000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2009</v>
       </c>
@@ -4028,7 +4318,7 @@
         <v>54945</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2010</v>
       </c>
@@ -4051,7 +4341,7 @@
         <v>59825</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2011</v>
       </c>
@@ -4074,7 +4364,7 @@
         <v>65112</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2012</v>
       </c>
@@ -4097,7 +4387,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2013</v>
       </c>
@@ -4120,7 +4410,7 @@
         <v>77211</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2014</v>
       </c>
@@ -4143,7 +4433,7 @@
         <v>84086</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
@@ -4166,7 +4456,7 @@
         <v>88682</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2016</v>
       </c>
@@ -4189,7 +4479,7 @@
         <v>93635</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2017</v>
       </c>
@@ -4212,7 +4502,7 @@
         <v>94457</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2018</v>
       </c>
@@ -4235,37 +4525,60 @@
         <v>102712</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="K17" s="15" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="K17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -4290,14 +4603,20 @@
       <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="20"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="20"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2000</v>
       </c>
@@ -4313,7 +4632,7 @@
       <c r="F19" s="4">
         <v>5932</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="18">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -4322,7 +4641,7 @@
       <c r="I19" s="4">
         <v>296573</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="39">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -4345,543 +4664,972 @@
         <f>SUM(L19:O19)</f>
         <v>296574000</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f>K19/$P19</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:V19" si="0">L19/$P19</f>
+        <v>0.21315422120617453</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>2.027487237586572E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>6.3171417588864839E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>0.70339948882909498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>212323</v>
+      </c>
+      <c r="D20" s="3">
+        <v>87</v>
+      </c>
+      <c r="E20" s="4">
+        <v>62329</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6170</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>20437</v>
+      </c>
+      <c r="I20" s="4">
+        <v>301347</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L26" si="1">(E20)*1000</f>
+        <v>62329000</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M30" si="2">(F20+D20)*1000</f>
+        <v>6257000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N30" si="3">H20*1000</f>
+        <v>20437000</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O30" si="4">(G20+C20)*1000</f>
+        <v>212323000</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P30" si="5">SUM(L20:O20)</f>
+        <v>301346000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="4">
+        <v>216465</v>
+      </c>
+      <c r="D21" s="3">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4">
+        <v>59261</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6373</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>20838</v>
+      </c>
+      <c r="I21" s="4">
+        <v>303033</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>59261000</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>6469000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>20838000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>216465000</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>303033000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C22" s="4">
+        <v>220377</v>
+      </c>
+      <c r="D22" s="3">
+        <v>99</v>
+      </c>
+      <c r="E22" s="4">
+        <v>59640</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7013</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>21917</v>
+      </c>
+      <c r="I22" s="4">
+        <v>309046</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>59640000</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>7112000</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>21917000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>220377000</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>309046000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="4">
+        <v>223425</v>
+      </c>
+      <c r="D23" s="3">
+        <v>124</v>
+      </c>
+      <c r="E23" s="4">
+        <v>60112</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6798</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>23655</v>
+      </c>
+      <c r="I23" s="4">
+        <v>314115</v>
+      </c>
+      <c r="K23" s="39">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>60112000</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>6922000</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>23655000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>223425000</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>314114000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C24" s="4">
+        <v>224707</v>
+      </c>
+      <c r="D24" s="3">
+        <v>124</v>
+      </c>
+      <c r="E24" s="4">
+        <v>57696</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5998</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>25246</v>
+      </c>
+      <c r="I24" s="4">
+        <v>313772</v>
+      </c>
+      <c r="K24" s="39">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>57696000</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>6122000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>25246000</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>224707000</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>313771000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C25" s="4">
+        <v>228186</v>
+      </c>
+      <c r="D25" s="3">
+        <v>128</v>
+      </c>
+      <c r="E25" s="4">
+        <v>50862</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6719</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>26821</v>
+      </c>
+      <c r="I25" s="4">
+        <v>312716</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>50862000</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>6847000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>26821000</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>228186000</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>312716000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C26" s="4">
+        <v>231616</v>
+      </c>
+      <c r="D26" s="3">
+        <v>132</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50229</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8345</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>29010</v>
+      </c>
+      <c r="I26" s="4">
+        <v>319333</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>50229000</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>8477000</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>29010000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>231616000</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="5"/>
+        <v>319332000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>2008</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C27" s="4">
         <v>232244</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D27" s="3">
         <v>131</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E27" s="4">
         <v>40096</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F27" s="4">
         <v>13568</v>
       </c>
-      <c r="G20" s="36">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>30763</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I27" s="4">
         <v>316802</v>
       </c>
-      <c r="K20" s="33">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <f>(E20)*1000</f>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f>(E27)*1000</f>
         <v>40096000</v>
       </c>
-      <c r="M20">
-        <f>(F20+D20)*1000</f>
+      <c r="M27">
+        <f t="shared" si="2"/>
         <v>13699000</v>
       </c>
-      <c r="N20">
-        <f>I20*1000</f>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>30763000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>232244000</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
         <v>316802000</v>
       </c>
-      <c r="O20">
-        <f>(H20+C20)*1000</f>
-        <v>263007000</v>
-      </c>
-      <c r="P20" s="1">
-        <f>SUM(L20:O20)</f>
-        <v>633604000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>2009</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C28" s="4">
         <v>233261</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D28" s="3">
         <v>130</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E28" s="4">
         <v>24255</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F28" s="4">
         <v>22767</v>
       </c>
-      <c r="G21" s="36">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>33682</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I28" s="4">
         <v>314094</v>
       </c>
-      <c r="K21" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:L30" si="6">(E28)*1000</f>
+        <v>24255000</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>22897000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>33682000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>233261000</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="5"/>
+        <v>314095000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>2010</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C29" s="4">
         <v>228915</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D29" s="3">
         <v>135</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E29" s="4">
         <v>14439</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F29" s="4">
         <v>30386</v>
       </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <v>36673</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I29" s="4">
         <v>310548</v>
       </c>
-      <c r="K22" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="6"/>
+        <v>14439000</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>30521000</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>36673000</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>228915000</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="5"/>
+        <v>310548000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>2011</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C30" s="4">
         <v>237929</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D30" s="3">
         <v>114</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E30" s="4">
         <v>10072</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F30" s="4">
         <v>35326</v>
       </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <v>39914</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I30" s="4">
         <v>323356</v>
       </c>
-      <c r="K23" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>10072000</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>35440000</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>39914000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>237929000</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="5"/>
+        <v>323355000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C31" s="4">
         <v>256594</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D31" s="3">
         <v>134</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E31" s="4">
         <v>7015</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F31" s="4">
         <v>41123</v>
       </c>
-      <c r="G24" s="36">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
         <v>44217</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I31" s="4">
         <v>349084</v>
       </c>
-      <c r="K24" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C32" s="4">
         <v>260328</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D32" s="3">
         <v>122</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E32" s="4">
         <v>6396</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F32" s="4">
         <v>45839</v>
       </c>
-      <c r="G25" s="36">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>47330</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I32" s="4">
         <v>360016</v>
       </c>
-      <c r="K25" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <v>2014</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C33" s="4">
         <v>263495</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D33" s="3">
         <v>114</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E33" s="4">
         <v>4929</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F33" s="4">
         <v>49810</v>
       </c>
-      <c r="G26" s="36">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>51545</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I33" s="4">
         <v>369893</v>
       </c>
-      <c r="K26" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="K27" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="K28" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="K29" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="K30" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="K33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="K34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="K36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
         <v>2008</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C41" s="3">
         <v>0.15</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D41" s="3">
         <v>47.46</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E41" s="3">
         <v>15.97</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>36.42</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <v>2009</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C42" s="3">
         <v>0.16</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D42" s="3">
         <v>30.01</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E42" s="3">
         <v>28.17</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>41.67</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
         <v>2010</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C43" s="3">
         <v>0.17</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D43" s="3">
         <v>17.690000000000001</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E43" s="3">
         <v>37.22</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>44.92</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
         <v>2011</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C44" s="3">
         <v>0.13</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D44" s="3">
         <v>11.79</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E44" s="3">
         <v>41.35</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>46.72</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>2012</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D45" s="3">
         <v>7.58</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E45" s="3">
         <v>44.46</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>47.81</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
         <v>2013</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C46" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D46" s="3">
         <v>6.42</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E46" s="3">
         <v>45.98</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>47.48</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
         <v>2014</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C47" s="3">
         <v>0.11</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D47" s="3">
         <v>4.63</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E47" s="3">
         <v>46.81</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>48.45</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
         <v>2015</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C48" s="3">
         <v>0.11</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D48" s="3">
         <v>3.53</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E48" s="3">
         <v>47.17</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>49.19</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
         <v>2016</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C49" s="3">
         <v>0.12</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D49" s="3">
         <v>2.64</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E49" s="3">
         <v>47.27</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>49.97</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>2017</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C50" s="3">
         <v>0.15</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D50" s="3">
         <v>2.6</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E50" s="3">
         <v>49</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
         <v>48.26</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
         <v>2018</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C51" s="3">
         <v>0.16</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D51" s="3">
         <v>2.37</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E51" s="3">
         <v>48.22</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F51" s="3">
         <v>0.13</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G51" s="3">
         <v>49.12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="R17:R18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4889,10 +5637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A818CB-55A4-4881-B1AD-A9F831D01238}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,29 +5649,55 @@
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M2" s="15" t="s">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4954,14 +5728,20 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="20"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2000</v>
       </c>
@@ -4991,6 +5771,9 @@
       </c>
       <c r="K4" s="4">
         <v>20670</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2000</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -5011,12 +5794,36 @@
         <f>C4*1000</f>
         <v>1452000</v>
       </c>
-      <c r="R4" s="3">
-        <f>SUM(M4:Q4)*1000</f>
-        <v>20672000000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="4">
+        <f>SUM(M4:Q4)</f>
+        <v>20672000</v>
+      </c>
+      <c r="T4">
+        <f>M4/$R4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:Y4" si="0">N4/$R4</f>
+        <v>0.42985681114551083</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>6.7289086687306501E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.43261416408668729</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>7.0239938080495362E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2001</v>
       </c>
@@ -5047,31 +5854,34 @@
       <c r="K5" s="4">
         <v>21450</v>
       </c>
+      <c r="L5" s="18">
+        <v>2001</v>
+      </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:N18" si="0">SUM(E5:G5)*1000</f>
+        <f t="shared" ref="N5:N18" si="1">SUM(E5:G5)*1000</f>
         <v>9166000</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O18" si="1">(I5+D5)*1000</f>
+        <f t="shared" ref="O5:O18" si="2">(I5+D5)*1000</f>
         <v>1285000</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P18" si="2">J5*1000</f>
+        <f t="shared" ref="P5:P18" si="3">J5*1000</f>
         <v>9555000</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q18" si="3">C5*1000</f>
+        <f t="shared" ref="Q5:Q18" si="4">C5*1000</f>
         <v>1444000</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" ref="R5:R18" si="4">SUM(M5:Q5)*1000</f>
-        <v>21450000000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R18" si="5">SUM(M5:Q5)</f>
+        <v>21450000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2002</v>
       </c>
@@ -5102,31 +5912,34 @@
       <c r="K6" s="4">
         <v>21752</v>
       </c>
+      <c r="L6" s="18">
+        <v>2002</v>
+      </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8902000</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1443000</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9970000</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1437000</v>
       </c>
-      <c r="R6" s="3">
-        <f t="shared" si="4"/>
-        <v>21752000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="4">
+        <f t="shared" si="5"/>
+        <v>21752000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2003</v>
       </c>
@@ -5157,31 +5970,34 @@
       <c r="K7" s="4">
         <v>22397</v>
       </c>
+      <c r="L7" s="18">
+        <v>2003</v>
+      </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8712000</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1104000</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11151000</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1430000</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="4"/>
-        <v>22397000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="4">
+        <f t="shared" si="5"/>
+        <v>22397000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2004</v>
       </c>
@@ -5212,31 +6028,34 @@
       <c r="K8" s="4">
         <v>25412</v>
       </c>
+      <c r="L8" s="18">
+        <v>2004</v>
+      </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9540000</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1462000</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12986000</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1423000</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" si="4"/>
-        <v>25411000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="4">
+        <f t="shared" si="5"/>
+        <v>25411000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2005</v>
       </c>
@@ -5267,31 +6086,34 @@
       <c r="K9" s="4">
         <v>26235</v>
       </c>
+      <c r="L9" s="18">
+        <v>2005</v>
+      </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8961000</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1514000</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14344000</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1416000</v>
       </c>
-      <c r="R9" s="3">
-        <f t="shared" si="4"/>
-        <v>26235000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="4">
+        <f t="shared" si="5"/>
+        <v>26235000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2006</v>
       </c>
@@ -5322,31 +6144,34 @@
       <c r="K10" s="4">
         <v>26195</v>
       </c>
+      <c r="L10" s="18">
+        <v>2006</v>
+      </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7867000</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1447000</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15473000</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1409000</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="4"/>
-        <v>26196000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>26196000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2007</v>
       </c>
@@ -5377,31 +6202,34 @@
       <c r="K11" s="4">
         <v>27896</v>
       </c>
+      <c r="L11" s="18">
+        <v>2007</v>
+      </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7647000</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1611000</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17237000</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1402000</v>
       </c>
-      <c r="R11" s="3">
-        <f t="shared" si="4"/>
-        <v>27897000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>27897000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2008</v>
       </c>
@@ -5432,31 +6260,34 @@
       <c r="K12" s="4">
         <v>29274</v>
       </c>
+      <c r="L12" s="18">
+        <v>2008</v>
+      </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7576000</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1382000</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18921000</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1395000</v>
       </c>
-      <c r="R12" s="3">
-        <f t="shared" si="4"/>
-        <v>29274000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="4">
+        <f t="shared" si="5"/>
+        <v>29274000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2009</v>
       </c>
@@ -5487,31 +6318,34 @@
       <c r="K13" s="4">
         <v>30848</v>
       </c>
+      <c r="L13" s="18">
+        <v>2009</v>
+      </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7274000</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1759000</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20426000</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1388000</v>
       </c>
-      <c r="R13" s="3">
-        <f t="shared" si="4"/>
-        <v>30847000000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>30847000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2010</v>
       </c>
@@ -5542,31 +6376,34 @@
       <c r="K14" s="4">
         <v>33122</v>
       </c>
+      <c r="L14" s="18">
+        <v>2010</v>
+      </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7026000</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1989000</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22726000</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1381000</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" si="4"/>
-        <v>33122000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="4">
+        <f t="shared" si="5"/>
+        <v>33122000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2011</v>
       </c>
@@ -5597,31 +6434,34 @@
       <c r="K15" s="4">
         <v>32982</v>
       </c>
+      <c r="L15" s="18">
+        <v>2011</v>
+      </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5817000</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2402000</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23390000</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1374000</v>
       </c>
-      <c r="R15" s="3">
-        <f t="shared" si="4"/>
-        <v>32983000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>32983000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
@@ -5652,28 +6492,31 @@
       <c r="K16" s="4">
         <v>35200</v>
       </c>
+      <c r="L16" s="18">
+        <v>2012</v>
+      </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5585000</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2764000</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25485000</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1367000</v>
       </c>
-      <c r="R16" s="3">
-        <f t="shared" si="4"/>
-        <v>35201000000</v>
+      <c r="R16" s="4">
+        <f t="shared" si="5"/>
+        <v>35201000</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -5707,28 +6550,31 @@
       <c r="K17" s="4">
         <v>37308</v>
       </c>
+      <c r="L17" s="18">
+        <v>2013</v>
+      </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5169000</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2691000</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28088000</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1360000</v>
       </c>
-      <c r="R17" s="3">
-        <f t="shared" si="4"/>
-        <v>37308000000</v>
+      <c r="R17" s="4">
+        <f t="shared" si="5"/>
+        <v>37308000</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
@@ -5762,38 +6608,47 @@
       <c r="K18" s="4">
         <v>38113</v>
       </c>
+      <c r="L18" s="18">
+        <v>2014</v>
+      </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4232000</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2826000</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29701000</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1353000</v>
       </c>
-      <c r="R18" s="3">
-        <f t="shared" si="4"/>
-        <v>38112000000</v>
+      <c r="R18" s="4">
+        <f t="shared" si="5"/>
+        <v>38112000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5801,75 +6656,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573DB0D2-3759-4445-ADCD-FDCC865A94E4}">
-  <dimension ref="C2:T46"/>
+  <dimension ref="C2:AP54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
+    <sheetView topLeftCell="W20" zoomScale="79" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41:AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
@@ -5912,29 +6777,29 @@
       <c r="R4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="16"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
@@ -6522,61 +7387,109 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="25" t="s">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="V18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH18" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="20"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="20"/>
+    </row>
+    <row r="20" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
@@ -6619,1310 +7532,2313 @@
       <c r="R20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="V20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AC20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+    </row>
+    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C21" s="37">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="37">
+        <v>174</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7085</v>
+      </c>
+      <c r="G21" s="5">
+        <v>70274</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="2">
+        <v>28</v>
+      </c>
+      <c r="N21" s="5">
+        <v>60754</v>
+      </c>
+      <c r="O21" s="5">
+        <v>320</v>
+      </c>
+      <c r="P21" s="2">
+        <v>498</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>138978</v>
+      </c>
+      <c r="S21" s="15">
+        <v>27</v>
+      </c>
+      <c r="T21" s="4">
+        <v>139179</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="38">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <f>R21*1000</f>
+        <v>138978000</v>
+      </c>
+      <c r="X21" s="3">
+        <f>D21*1000</f>
+        <v>174000</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>S21*1000</f>
+        <v>27000</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>Q21*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f>SUM(V21:Z21)</f>
+        <v>139179000</v>
+      </c>
+      <c r="AC21">
+        <f>V21/$AA21</f>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ref="AD21:AH21" si="0">W21/$AA21</f>
+        <v>0.99855581661026449</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="0"/>
+        <v>1.2501886060397043E-3</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>1.9399478369581618E-4</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="37">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8680</v>
+      </c>
+      <c r="G22" s="5">
+        <v>74043</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>148091</v>
+      </c>
+      <c r="S22" s="15">
+        <v>30</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="38">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" ref="W22:W39" si="1">R22*1000</f>
+        <v>148091000</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" ref="X22:X39" si="2">D22*1000</f>
+        <v>139000</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" ref="Y22:Y39" si="3">S22*1000</f>
+        <v>30000</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" ref="Z22:Z39" si="4">Q22*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="40"/>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="37">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9409</v>
+      </c>
+      <c r="G23" s="5">
+        <v>77642</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>151349</v>
+      </c>
+      <c r="S23" s="15">
+        <v>33</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="38">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="1"/>
+        <v>151349000</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="2"/>
+        <v>118000</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="3"/>
+        <v>33000</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="40"/>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D24" s="37">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>11365</v>
+      </c>
+      <c r="G24" s="5">
+        <v>80109</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2163</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>156093</v>
+      </c>
+      <c r="S24" s="15">
+        <v>33</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="38">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="1"/>
+        <v>156093000</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="2"/>
+        <v>108000</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="3"/>
+        <v>33000</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="40"/>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D25" s="37">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5">
+        <v>14361</v>
+      </c>
+      <c r="G25" s="5">
+        <v>89380</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2841</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>178256</v>
+      </c>
+      <c r="S25" s="15">
+        <v>34</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="38">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="1"/>
+        <v>178256000</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="3"/>
+        <v>34000</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="40"/>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D26" s="37">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
+        <v>13682</v>
+      </c>
+      <c r="G26" s="5">
+        <v>96863</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1450</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>178376</v>
+      </c>
+      <c r="S26" s="15">
+        <v>34</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="38">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="1"/>
+        <v>178376000</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" si="2"/>
+        <v>43000</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" si="3"/>
+        <v>34000</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="40"/>
+    </row>
+    <row r="27" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D27" s="37">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5">
+        <v>14303</v>
+      </c>
+      <c r="G27" s="5">
+        <v>92901</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2947</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="5">
+        <v>1418</v>
+      </c>
+      <c r="R27" s="5">
+        <v>168636</v>
+      </c>
+      <c r="S27" s="15">
+        <v>41</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="38">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="1"/>
+        <v>168636000</v>
+      </c>
+      <c r="X27" s="3">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="3"/>
+        <v>41000</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="4"/>
+        <v>1418000</v>
+      </c>
+      <c r="AA27" s="40"/>
+    </row>
+    <row r="28" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D28" s="37">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5">
+        <v>14845</v>
+      </c>
+      <c r="G28" s="5">
+        <v>98847</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2752</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="5">
+        <v>6076</v>
+      </c>
+      <c r="R28" s="5">
+        <v>172975</v>
+      </c>
+      <c r="S28" s="15">
+        <v>52</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="38">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="1"/>
+        <v>172975000</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="2"/>
+        <v>49000</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="3"/>
+        <v>52000</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="4"/>
+        <v>6076000</v>
+      </c>
+      <c r="AA28" s="40"/>
+    </row>
+    <row r="29" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
         <v>2008</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D29" s="3">
         <v>124</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E29" s="3">
         <v>11</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F29" s="4">
         <v>15526</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G29" s="4">
         <v>111633</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H29" s="4">
         <v>1831</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I29" s="3">
         <v>669</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>18</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N29" s="4">
         <v>49189</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O29" s="3">
         <v>35</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P29" s="3">
         <v>535</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q29" s="4">
         <v>6041</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R29" s="4">
         <v>185495</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S29" s="3">
         <v>50</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T29" s="4">
         <v>185669</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+      <c r="V29" s="38">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="1"/>
+        <v>185495000</v>
+      </c>
+      <c r="X29" s="3">
+        <f t="shared" si="2"/>
+        <v>124000</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="4"/>
+        <v>6041000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
         <v>2009</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D30" s="3">
         <v>191</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E30" s="3">
         <v>9</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F30" s="4">
         <v>16262</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G30" s="4">
         <v>121843</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H30" s="4">
         <v>2799</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I30" s="3">
         <v>608</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
         <v>13</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>11</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N30" s="4">
         <v>52692</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O30" s="3">
         <v>28</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P30" s="3">
         <v>484</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q30" s="4">
         <v>14959</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R30" s="4">
         <v>209709</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S30" s="3">
         <v>68</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T30" s="4">
         <v>209968</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="V30" s="38">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="1"/>
+        <v>209709000</v>
+      </c>
+      <c r="X30" s="3">
+        <f t="shared" si="2"/>
+        <v>191000</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="3"/>
+        <v>68000</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="4"/>
+        <v>14959000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
         <v>2010</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D31" s="3">
         <v>195</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E31" s="3">
         <v>12</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F31" s="4">
         <v>20779</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G31" s="4">
         <v>130486</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H31" s="4">
         <v>3907</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I31" s="3">
         <v>663</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <v>29</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <v>6</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N31" s="4">
         <v>45845</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O31" s="3">
         <v>24</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P31" s="3">
         <v>405</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q31" s="4">
         <v>27939</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R31" s="4">
         <v>230096</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S31" s="3">
         <v>54</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T31" s="4">
         <v>230346</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="V31" s="38">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="1"/>
+        <v>230096000</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" si="4"/>
+        <v>27939000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
         <v>2011</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D32" s="3">
         <v>181</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E32" s="3">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F32" s="4">
         <v>20983</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G32" s="4">
         <v>144330</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H32" s="4">
         <v>3643</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I32" s="4">
         <v>1717</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>41</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>4</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N32" s="4">
         <v>60289</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O32" s="3">
         <v>28</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P32" s="3">
         <v>424</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q32" s="4">
         <v>45804</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R32" s="4">
         <v>277278</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S32" s="3">
         <v>54</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T32" s="4">
         <v>277513</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="V32" s="38">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <f t="shared" si="1"/>
+        <v>277278000</v>
+      </c>
+      <c r="X32" s="3">
+        <f t="shared" si="2"/>
+        <v>181000</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+      <c r="Z32" s="3">
+        <f t="shared" si="4"/>
+        <v>45804000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
         <v>2012</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D33" s="3">
         <v>154</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E33" s="3">
         <v>14</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F33" s="4">
         <v>22967</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G33" s="4">
         <v>160910</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H33" s="4">
         <v>3884</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I33" s="3">
         <v>871</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>80</v>
       </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>3</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N33" s="4">
         <v>80930</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O33" s="3">
         <v>20</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P33" s="3">
         <v>393</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q33" s="4">
         <v>59227</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R33" s="4">
         <v>329300</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S33" s="3">
         <v>66</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T33" s="4">
         <v>329520</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
+      <c r="V33" s="38">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="1"/>
+        <v>329300000</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="2"/>
+        <v>154000</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="3"/>
+        <v>66000</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="4"/>
+        <v>59227000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
         <v>2013</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D34" s="3">
         <v>185</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E34" s="3">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F34" s="4">
         <v>24499</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G34" s="4">
         <v>166800</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H34" s="4">
         <v>4956</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I34" s="3">
         <v>925</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
         <v>150</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
         <v>3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N34" s="4">
         <v>76529</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O34" s="3">
         <v>17</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P34" s="3">
         <v>226</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q34" s="4">
         <v>67025</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R34" s="4">
         <v>341146</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S34" s="3">
         <v>79</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T34" s="4">
         <v>341410</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
+      <c r="V34" s="38">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="1"/>
+        <v>341146000</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" si="2"/>
+        <v>185000</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="3"/>
+        <v>79000</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="4"/>
+        <v>67025000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
         <v>2014</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D35" s="3">
         <v>207</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E35" s="3">
         <v>8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F35" s="4">
         <v>24912</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G35" s="4">
         <v>167960</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H35" s="4">
         <v>6194</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I35" s="3">
         <v>903</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>216</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>2</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N35" s="4">
         <v>69187</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O35" s="3">
         <v>13</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P35" s="3">
         <v>216</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q35" s="4">
         <v>72868</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R35" s="4">
         <v>342480</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S35" s="3">
         <v>95</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T35" s="4">
         <v>342782</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
+      <c r="V35" s="38">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="1"/>
+        <v>342480000</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" si="2"/>
+        <v>207000</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="3"/>
+        <v>95000</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="4"/>
+        <v>72868000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
         <v>2015</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D36" s="3">
         <v>246</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E36" s="3">
         <v>17</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F36" s="4">
         <v>25546</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G36" s="4">
         <v>158914</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H36" s="4">
         <v>16095</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I36" s="4">
         <v>1624</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J36" s="4">
         <v>2214</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K36" s="3">
         <v>250</v>
       </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
         <v>2</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N36" s="4">
         <v>84320</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O36" s="3">
         <v>12</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P36" s="3">
         <v>189</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q36" s="4">
         <v>19737</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R36" s="4">
         <v>308921</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S36" s="3">
         <v>126</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T36" s="4">
         <v>309292</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
+      <c r="V36" s="38">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="1"/>
+        <v>308921000</v>
+      </c>
+      <c r="X36" s="3">
+        <f t="shared" si="2"/>
+        <v>246000</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="3"/>
+        <v>126000</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="4"/>
+        <v>19737000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
         <v>2016</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D37" s="3">
         <v>205</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E37" s="3">
         <v>18</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F37" s="4">
         <v>28720</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G37" s="4">
         <v>122575</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H37" s="4">
         <v>27861</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I37" s="4">
         <v>2134</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J37" s="4">
         <v>33830</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K37" s="3">
         <v>687</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L37" s="3">
         <v>884</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M37" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N37" s="4">
         <v>46893</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O37" s="3">
         <v>9</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P37" s="3">
         <v>230</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q37" s="4">
         <v>75343</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R37" s="4">
         <v>339185</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S37" s="3">
         <v>137</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T37" s="4">
         <v>339526</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="3">
+      <c r="V37" s="38">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="1"/>
+        <v>339185000</v>
+      </c>
+      <c r="X37" s="3">
+        <f t="shared" si="2"/>
+        <v>205000</v>
+      </c>
+      <c r="Y37" s="3">
+        <f t="shared" si="3"/>
+        <v>137000</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" si="4"/>
+        <v>75343000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
         <v>2017</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D38" s="3">
         <v>92</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E38" s="3">
         <v>16</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F38" s="4">
         <v>31640</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G38" s="4">
         <v>70632</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H38" s="4">
         <v>36062</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I38" s="4">
         <v>2214</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J38" s="4">
         <v>84424</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K38" s="4">
         <v>2542</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L38" s="4">
         <v>1159</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M38" s="3">
         <v>1</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N38" s="4">
         <v>53080</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O38" s="3">
         <v>22</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P38" s="3">
         <v>239</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q38" s="4">
         <v>79427</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R38" s="4">
         <v>361459</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S38" s="3">
         <v>144</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T38" s="4">
         <v>361695</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="3">
+      <c r="V38" s="38">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="1"/>
+        <v>361459000</v>
+      </c>
+      <c r="X38" s="3">
+        <f t="shared" si="2"/>
+        <v>92000</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="3"/>
+        <v>144000</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="4"/>
+        <v>79427000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
         <v>2018</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D39" s="3">
         <v>234</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E39" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F39" s="4">
         <v>33681</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G39" s="4">
         <v>60710</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H39" s="4">
         <v>32885</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I39" s="4">
         <v>2249</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J39" s="4">
         <v>103186</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K39" s="4">
         <v>4322</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L39" s="4">
         <v>1297</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M39" s="3">
         <v>1</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N39" s="4">
         <v>38549</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O39" s="3">
         <v>16</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P39" s="3">
         <v>251</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q39" s="4">
         <v>113829</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R39" s="4">
         <v>390996</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S39" s="3">
         <v>168</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T39" s="4">
         <v>391397</v>
       </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="25" t="s">
+      <c r="V39" s="38">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3">
+        <f t="shared" si="1"/>
+        <v>390996000</v>
+      </c>
+      <c r="X39" s="3">
+        <f t="shared" si="2"/>
+        <v>234000</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="3"/>
+        <v>168000</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="4"/>
+        <v>113829000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C41" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="W41" t="s">
+        <v>102</v>
+      </c>
+      <c r="X41">
+        <v>138978000</v>
+      </c>
+      <c r="Y41">
+        <v>148091000</v>
+      </c>
+      <c r="Z41">
+        <v>151349000</v>
+      </c>
+      <c r="AA41">
+        <v>156093000</v>
+      </c>
+      <c r="AB41">
+        <v>178256000</v>
+      </c>
+      <c r="AC41">
+        <v>178376000</v>
+      </c>
+      <c r="AD41">
+        <v>168636000</v>
+      </c>
+      <c r="AE41">
+        <v>172975000</v>
+      </c>
+      <c r="AF41">
+        <v>185495000</v>
+      </c>
+      <c r="AG41">
+        <v>209709000</v>
+      </c>
+      <c r="AH41">
+        <v>230096000</v>
+      </c>
+      <c r="AI41">
+        <v>277278000</v>
+      </c>
+      <c r="AJ41">
+        <v>329300000</v>
+      </c>
+      <c r="AK41">
+        <v>341146000</v>
+      </c>
+      <c r="AL41">
+        <v>342480000</v>
+      </c>
+      <c r="AM41">
+        <v>308921000</v>
+      </c>
+      <c r="AN41">
+        <v>339185000</v>
+      </c>
+      <c r="AO41">
+        <v>361459000</v>
+      </c>
+      <c r="AP41">
+        <v>390996000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C42" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E42" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T42" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="2" t="s">
+      <c r="W42" t="s">
+        <v>103</v>
+      </c>
+      <c r="X42">
+        <v>174000</v>
+      </c>
+      <c r="Y42">
+        <v>139000</v>
+      </c>
+      <c r="Z42">
+        <v>118000</v>
+      </c>
+      <c r="AA42">
+        <v>108000</v>
+      </c>
+      <c r="AB42">
+        <v>85000</v>
+      </c>
+      <c r="AC42">
+        <v>43000</v>
+      </c>
+      <c r="AD42">
+        <v>42000</v>
+      </c>
+      <c r="AE42">
+        <v>49000</v>
+      </c>
+      <c r="AF42">
+        <v>124000</v>
+      </c>
+      <c r="AG42">
+        <v>191000</v>
+      </c>
+      <c r="AH42">
+        <v>195000</v>
+      </c>
+      <c r="AI42">
+        <v>181000</v>
+      </c>
+      <c r="AJ42">
+        <v>154000</v>
+      </c>
+      <c r="AK42">
+        <v>185000</v>
+      </c>
+      <c r="AL42">
+        <v>207000</v>
+      </c>
+      <c r="AM42">
+        <v>246000</v>
+      </c>
+      <c r="AN42">
+        <v>205000</v>
+      </c>
+      <c r="AO42">
+        <v>92000</v>
+      </c>
+      <c r="AP42">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="3">
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="W43" t="s">
+        <v>104</v>
+      </c>
+      <c r="X43">
+        <v>27000</v>
+      </c>
+      <c r="Y43">
+        <v>30000</v>
+      </c>
+      <c r="Z43">
+        <v>33000</v>
+      </c>
+      <c r="AA43">
+        <v>33000</v>
+      </c>
+      <c r="AB43">
+        <v>34000</v>
+      </c>
+      <c r="AC43">
+        <v>34000</v>
+      </c>
+      <c r="AD43">
+        <v>41000</v>
+      </c>
+      <c r="AE43">
+        <v>52000</v>
+      </c>
+      <c r="AF43">
+        <v>50000</v>
+      </c>
+      <c r="AG43">
+        <v>68000</v>
+      </c>
+      <c r="AH43">
+        <v>54000</v>
+      </c>
+      <c r="AI43">
+        <v>54000</v>
+      </c>
+      <c r="AJ43">
+        <v>66000</v>
+      </c>
+      <c r="AK43">
+        <v>79000</v>
+      </c>
+      <c r="AL43">
+        <v>95000</v>
+      </c>
+      <c r="AM43">
+        <v>126000</v>
+      </c>
+      <c r="AN43">
+        <v>137000</v>
+      </c>
+      <c r="AO43">
+        <v>144000</v>
+      </c>
+      <c r="AP43">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
         <v>2008</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D44" s="3">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F36" s="3">
-        <v>8.36</v>
-      </c>
-      <c r="G36" s="3">
-        <v>60.12</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N36" s="3">
-        <v>26.49</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="R36" s="3">
-        <v>99.91</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>7.75</v>
-      </c>
-      <c r="G37" s="3">
-        <v>58.03</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="N37" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>7.12</v>
-      </c>
-      <c r="R37" s="3">
-        <v>99.88</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="3">
-        <v>2010</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F38" s="3">
-        <v>9.02</v>
-      </c>
-      <c r="G38" s="3">
-        <v>56.65</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>12.13</v>
-      </c>
-      <c r="R38" s="3">
-        <v>99.89</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D39" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>7.56</v>
-      </c>
-      <c r="G39" s="3">
-        <v>52.01</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>21.72</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="R39" s="3">
-        <v>99.92</v>
-      </c>
-      <c r="S39" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6.97</v>
-      </c>
-      <c r="G40" s="3">
-        <v>48.83</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>24.56</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>17.97</v>
-      </c>
-      <c r="R40" s="3">
-        <v>99.93</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>7.18</v>
-      </c>
-      <c r="G41" s="3">
-        <v>48.86</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>22.42</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="P41" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>19.63</v>
-      </c>
-      <c r="R41" s="3">
-        <v>99.92</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>7.27</v>
-      </c>
-      <c r="G42" s="3">
-        <v>49</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1.81</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>20.18</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>21.26</v>
-      </c>
-      <c r="R42" s="3">
-        <v>99.91</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8.26</v>
-      </c>
-      <c r="G43" s="3">
-        <v>51.38</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>27.26</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>6.38</v>
-      </c>
-      <c r="R43" s="3">
-        <v>99.88</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.06</v>
       </c>
       <c r="E44" s="3">
         <v>0.01</v>
       </c>
       <c r="F44" s="3">
-        <v>8.4600000000000009</v>
+        <v>8.36</v>
       </c>
       <c r="G44" s="3">
-        <v>36.1</v>
+        <v>60.12</v>
       </c>
       <c r="H44" s="3">
-        <v>8.2100000000000009</v>
+        <v>0.99</v>
       </c>
       <c r="I44" s="3">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="J44" s="3">
-        <v>9.9600000000000009</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N44" s="3">
-        <v>13.81</v>
+        <v>26.49</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P44" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q44" s="3">
-        <v>22.19</v>
+        <v>3.25</v>
       </c>
       <c r="R44" s="3">
-        <v>99.9</v>
+        <v>99.91</v>
       </c>
       <c r="S44" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="W44" t="s">
+        <v>106</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>1418000</v>
+      </c>
+      <c r="AE44">
+        <v>6076000</v>
+      </c>
+      <c r="AF44">
+        <v>6041000</v>
+      </c>
+      <c r="AG44">
+        <v>14959000</v>
+      </c>
+      <c r="AH44">
+        <v>27939000</v>
+      </c>
+      <c r="AI44">
+        <v>45804000</v>
+      </c>
+      <c r="AJ44">
+        <v>59227000</v>
+      </c>
+      <c r="AK44">
+        <v>67025000</v>
+      </c>
+      <c r="AL44">
+        <v>72868000</v>
+      </c>
+      <c r="AM44">
+        <v>19737000</v>
+      </c>
+      <c r="AN44">
+        <v>75343000</v>
+      </c>
+      <c r="AO44">
+        <v>79427000</v>
+      </c>
+      <c r="AP44">
+        <v>113829000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D45" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="G45" s="3">
+        <v>58.03</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N45" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="R45" s="3">
+        <v>99.88</v>
+      </c>
+      <c r="S45" s="3">
         <v>0.03</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="G45" s="3">
-        <v>19.53</v>
-      </c>
-      <c r="H45" s="3">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="J45" s="3">
-        <v>23.34</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>14.68</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>21.96</v>
-      </c>
-      <c r="R45" s="3">
-        <v>99.93</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="D46" s="3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E46" s="3">
         <v>0.01</v>
       </c>
       <c r="F46" s="3">
+        <v>9.02</v>
+      </c>
+      <c r="G46" s="3">
+        <v>56.65</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>12.13</v>
+      </c>
+      <c r="R46" s="3">
+        <v>99.89</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="G47" s="3">
+        <v>52.01</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>21.72</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="R47" s="3">
+        <v>99.92</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6.97</v>
+      </c>
+      <c r="G48" s="3">
+        <v>48.83</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>24.56</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>17.97</v>
+      </c>
+      <c r="R48" s="3">
+        <v>99.93</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7.18</v>
+      </c>
+      <c r="G49" s="3">
+        <v>48.86</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>22.42</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P49" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>19.63</v>
+      </c>
+      <c r="R49" s="3">
+        <v>99.92</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="G50" s="3">
+        <v>49</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>20.18</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>21.26</v>
+      </c>
+      <c r="R50" s="3">
+        <v>99.91</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C51" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="G51" s="3">
+        <v>51.38</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>27.26</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="R51" s="3">
+        <v>99.88</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G52" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>13.81</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>22.19</v>
+      </c>
+      <c r="R52" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="G53" s="3">
+        <v>19.53</v>
+      </c>
+      <c r="H53" s="3">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J53" s="3">
+        <v>23.34</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>14.68</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>21.96</v>
+      </c>
+      <c r="R53" s="3">
+        <v>99.93</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="3">
         <v>8.61</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G54" s="3">
         <v>15.51</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H54" s="3">
         <v>8.4</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I54" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J54" s="3">
         <v>26.36</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K54" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L54" s="3">
         <v>0.33</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>9.85</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>0.06</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q54" s="3">
         <v>29.08</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R54" s="3">
         <v>99.9</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S54" s="3">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="32">
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="C41:T41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:R42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:R19"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C2:S2"/>
     <mergeCell ref="C18:T18"/>
     <mergeCell ref="S3:S4"/>
@@ -7930,27 +9846,822 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:R3"/>
     <mergeCell ref="E5:R5"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:R19"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C33:T33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:R34"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA60FF6-1F81-4CEC-B2A3-F3703BB1D624}">
+  <dimension ref="B1:V18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:X20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="20"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="Q3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2158</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2889</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18858</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1196</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4114</v>
+      </c>
+      <c r="H4" s="4">
+        <v>29214</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>H4*1000</f>
+        <v>29214000</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM(J4:N4)</f>
+        <v>29214000</v>
+      </c>
+      <c r="Q4">
+        <f>J4/$O4</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:V4" si="0">K4/$O4</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2273</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2848</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20018</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1155</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4291</v>
+      </c>
+      <c r="H5" s="4">
+        <v>30586</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K18" si="1">H5*1000</f>
+        <v>30586000</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O18" si="2">SUM(J5:N5)</f>
+        <v>30586000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2384</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2708</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19698</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1092</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4116</v>
+      </c>
+      <c r="H6" s="4">
+        <v>29999</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>29999000</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>29999000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2460</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2725</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18973</v>
+      </c>
+      <c r="F7" s="3">
+        <v>950</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3338</v>
+      </c>
+      <c r="H7" s="4">
+        <v>28445</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>28445000</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>28445000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2744</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2747</v>
+      </c>
+      <c r="E8" s="4">
+        <v>21808</v>
+      </c>
+      <c r="F8" s="3">
+        <v>875</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3515</v>
+      </c>
+      <c r="H8" s="4">
+        <v>31690</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>31690000</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>31690000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2974</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2636</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20257</v>
+      </c>
+      <c r="F9" s="3">
+        <v>723</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2511</v>
+      </c>
+      <c r="H9" s="4">
+        <v>29102</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>29102000</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>29102000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2852</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2324</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17770</v>
+      </c>
+      <c r="F10" s="3">
+        <v>392</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2598</v>
+      </c>
+      <c r="H10" s="4">
+        <v>25937</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>25937000</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>25937000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3035</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2295</v>
+      </c>
+      <c r="E11" s="4">
+        <v>17141</v>
+      </c>
+      <c r="F11" s="3">
+        <v>212</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2228</v>
+      </c>
+      <c r="H11" s="4">
+        <v>24912</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>24912000</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>24912000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3420</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1832</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18875</v>
+      </c>
+      <c r="F12" s="3">
+        <v>127</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1602</v>
+      </c>
+      <c r="H12" s="4">
+        <v>25856</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>25856000</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>25856000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3722</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1108</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20898</v>
+      </c>
+      <c r="F13" s="3">
+        <v>110</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1348</v>
+      </c>
+      <c r="H13" s="4">
+        <v>27187</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>27187000</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>27187000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4006</v>
+      </c>
+      <c r="D14" s="3">
+        <v>660</v>
+      </c>
+      <c r="E14" s="4">
+        <v>21931</v>
+      </c>
+      <c r="F14" s="3">
+        <v>133</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="H14" s="4">
+        <v>28743</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>28743000</v>
+      </c>
+      <c r="L14" s="38">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>28743000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4432</v>
+      </c>
+      <c r="D15" s="3">
+        <v>460</v>
+      </c>
+      <c r="E15" s="4">
+        <v>18522</v>
+      </c>
+      <c r="F15" s="3">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1305</v>
+      </c>
+      <c r="H15" s="4">
+        <v>24816</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>24816000</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>24816000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4941</v>
+      </c>
+      <c r="D16" s="3">
+        <v>321</v>
+      </c>
+      <c r="E16" s="4">
+        <v>18302</v>
+      </c>
+      <c r="F16" s="3">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1421</v>
+      </c>
+      <c r="H16" s="4">
+        <v>25056</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>25056000</v>
+      </c>
+      <c r="L16" s="38">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>25056000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5121</v>
+      </c>
+      <c r="D17" s="3">
+        <v>292</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16961</v>
+      </c>
+      <c r="F17" s="3">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3">
+        <v>818</v>
+      </c>
+      <c r="H17" s="4">
+        <v>23255</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>23255000</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>23255000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5157</v>
+      </c>
+      <c r="D18" s="3">
+        <v>225</v>
+      </c>
+      <c r="E18" s="4">
+        <v>13947</v>
+      </c>
+      <c r="F18" s="3">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3">
+        <v>781</v>
+      </c>
+      <c r="H18" s="4">
+        <v>20157</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>20157000</v>
+      </c>
+      <c r="L18" s="38">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="38">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="2"/>
+        <v>20157000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6C1DE-A7AD-443A-91E0-44E65BDF3EDE}">
   <dimension ref="C2:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7967,102 +10678,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8075,11 +10786,11 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="15"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
@@ -8798,6 +11509,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
@@ -8814,20 +11528,17 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A65A2B-8990-4806-ABEE-8DB28982DAA3}">
   <dimension ref="C2:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I18" sqref="I18:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8840,17 +11551,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
@@ -9163,14 +11874,14 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
@@ -9184,7 +11895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>2008</v>
       </c>
@@ -9197,8 +11908,14 @@
       <c r="F18" s="4">
         <v>2885328</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>2008</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2885328</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>2009</v>
       </c>
@@ -9211,8 +11928,14 @@
       <c r="F19" s="4">
         <v>3060897</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>2009</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3060897</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>2010</v>
       </c>
@@ -9225,8 +11948,14 @@
       <c r="F20" s="4">
         <v>3407592</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>2010</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3407592</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>2011</v>
       </c>
@@ -9239,8 +11968,14 @@
       <c r="F21" s="4">
         <v>3256379</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>2011</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3256379</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>2012</v>
       </c>
@@ -9253,8 +11988,14 @@
       <c r="F22" s="4">
         <v>3174639</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3174639</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>2013</v>
       </c>
@@ -9267,8 +12008,14 @@
       <c r="F23" s="4">
         <v>3120838</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <v>2013</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3120838</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>2014</v>
       </c>
@@ -9281,8 +12028,14 @@
       <c r="F24" s="4">
         <v>3175791</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>2014</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3175791</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>2015</v>
       </c>
@@ -9295,8 +12048,14 @@
       <c r="F25" s="4">
         <v>3116142</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3116142</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>2016</v>
       </c>
@@ -9309,8 +12068,14 @@
       <c r="F26" s="4">
         <v>3070239</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3070239</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>2017</v>
       </c>
@@ -9323,8 +12088,14 @@
       <c r="F27" s="4">
         <v>2963184</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2963184</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>2018</v>
       </c>
@@ -9335,6 +12106,12 @@
         <v>2419532</v>
       </c>
       <c r="F28" s="4">
+        <v>2996802</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I28" s="4">
         <v>2996802</v>
       </c>
     </row>
@@ -9348,13 +12125,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D669443A-3E09-4944-906E-A5B09966FBDB}">
-  <dimension ref="A2:V71"/>
+  <dimension ref="A2:AQ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E73" sqref="E73"/>
+      <selection pane="topRight" activeCell="Y5" sqref="Y5:AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9380,37 +12157,97 @@
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="S2" s="22" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="S2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2">
+        <v>887.18022320293903</v>
+      </c>
+      <c r="Z2">
+        <v>613.88342590921388</v>
+      </c>
+      <c r="AA2">
+        <v>136.86573546180159</v>
+      </c>
+      <c r="AB2">
+        <v>282.76229401278317</v>
+      </c>
+      <c r="AC2">
+        <v>255.03486932151469</v>
+      </c>
+      <c r="AD2">
+        <v>165.66786048593869</v>
+      </c>
+      <c r="AE2">
+        <v>172.47748167763834</v>
+      </c>
+      <c r="AF2">
+        <v>236.34569631503385</v>
+      </c>
+      <c r="AG2">
+        <v>9701.0989472228503</v>
+      </c>
+      <c r="AH2">
+        <v>10257.475897140388</v>
+      </c>
+      <c r="AI2">
+        <v>11139.123592874595</v>
+      </c>
+      <c r="AJ2">
+        <v>14384.588186393445</v>
+      </c>
+      <c r="AK2">
+        <v>17794.012379333064</v>
+      </c>
+      <c r="AL2">
+        <v>21875.831579901493</v>
+      </c>
+      <c r="AM2">
+        <v>23259.315083655514</v>
+      </c>
+      <c r="AN2">
+        <v>23975.116015254651</v>
+      </c>
+      <c r="AO2">
+        <v>28183.459700857955</v>
+      </c>
+      <c r="AP2">
+        <v>28939.005172886678</v>
+      </c>
+      <c r="AQ2">
+        <v>30382.524271256087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -9471,35 +12308,155 @@
       <c r="V3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="X3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3">
+        <v>20698.99670301994</v>
+      </c>
+      <c r="Z3">
+        <v>9944.1880850103771</v>
+      </c>
+      <c r="AA3">
+        <v>8986.8965108323828</v>
+      </c>
+      <c r="AB3">
+        <v>11670.89088221227</v>
+      </c>
+      <c r="AC3">
+        <v>11815.179873557974</v>
+      </c>
+      <c r="AD3">
+        <v>11594.246619185218</v>
+      </c>
+      <c r="AE3">
+        <v>13114.584341607148</v>
+      </c>
+      <c r="AF3">
+        <v>13932.476862651261</v>
+      </c>
+      <c r="AG3">
+        <v>5664.8978460969547</v>
+      </c>
+      <c r="AH3">
+        <v>5403.7928156719754</v>
+      </c>
+      <c r="AI3">
+        <v>6171.4477048697026</v>
+      </c>
+      <c r="AJ3">
+        <v>7142.7731548510928</v>
+      </c>
+      <c r="AK3">
+        <v>6612.11959360113</v>
+      </c>
+      <c r="AL3">
+        <v>6241.8905282660917</v>
+      </c>
+      <c r="AM3">
+        <v>6418.674115117984</v>
+      </c>
+      <c r="AN3">
+        <v>9488.4395315715083</v>
+      </c>
+      <c r="AO3">
+        <v>6606.7054511433143</v>
+      </c>
+      <c r="AP3">
+        <v>6360.2751968841812</v>
+      </c>
+      <c r="AQ3">
+        <v>4773.5420090421312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="S4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4">
+        <v>10976.733073777121</v>
+      </c>
+      <c r="Z4">
+        <v>9221.6984890804088</v>
+      </c>
+      <c r="AA4">
+        <v>8453.2977537058159</v>
+      </c>
+      <c r="AB4">
+        <v>9212.8868237749466</v>
+      </c>
+      <c r="AC4">
+        <v>10334.225257120512</v>
+      </c>
+      <c r="AD4">
+        <v>11220.485520328843</v>
+      </c>
+      <c r="AE4">
+        <v>11831.908176715217</v>
+      </c>
+      <c r="AF4">
+        <v>12010.237441033705</v>
+      </c>
+      <c r="AG4">
+        <v>11346.763206680196</v>
+      </c>
+      <c r="AH4">
+        <v>11405.941287187636</v>
+      </c>
+      <c r="AI4">
+        <v>11745.548702255703</v>
+      </c>
+      <c r="AJ4">
+        <v>13149.098658755465</v>
+      </c>
+      <c r="AK4">
+        <v>15285.118027065804</v>
+      </c>
+      <c r="AL4">
+        <v>16319.217891832413</v>
+      </c>
+      <c r="AM4">
+        <v>16700.580801226504</v>
+      </c>
+      <c r="AN4">
+        <v>15316.314453173844</v>
+      </c>
+      <c r="AO4">
+        <v>17784.204847998732</v>
+      </c>
+      <c r="AP4">
+        <v>18161.31963022914</v>
+      </c>
+      <c r="AQ4">
+        <v>19988.203719701778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2000</v>
       </c>
@@ -9567,8 +12524,68 @@
         <f>B5+F5+I5+K5+L5+O5+P5+N5+J5</f>
         <v>4724.28</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5">
+        <v>4724.28</v>
+      </c>
+      <c r="Z5">
+        <v>3897.61</v>
+      </c>
+      <c r="AA5">
+        <v>3940.17</v>
+      </c>
+      <c r="AB5">
+        <v>3972.92</v>
+      </c>
+      <c r="AC5">
+        <v>4019.71</v>
+      </c>
+      <c r="AD5">
+        <v>4260.9399999999996</v>
+      </c>
+      <c r="AE5">
+        <v>4569.1900000000005</v>
+      </c>
+      <c r="AF5">
+        <v>4674.72</v>
+      </c>
+      <c r="AG5">
+        <v>4749.78</v>
+      </c>
+      <c r="AH5">
+        <v>4891.7299999999996</v>
+      </c>
+      <c r="AI5">
+        <v>4923.4399999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>5198.51</v>
+      </c>
+      <c r="AK5">
+        <v>5513.43</v>
+      </c>
+      <c r="AL5">
+        <v>6544.76</v>
+      </c>
+      <c r="AM5">
+        <v>6679.0300000000007</v>
+      </c>
+      <c r="AN5">
+        <v>6745.3300000000008</v>
+      </c>
+      <c r="AO5">
+        <v>7079.0300000000007</v>
+      </c>
+      <c r="AP5">
+        <v>7326.4800000000005</v>
+      </c>
+      <c r="AQ5">
+        <v>7111.5400000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2001</v>
       </c>
@@ -9637,7 +12654,7 @@
         <v>3897.61</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
@@ -9706,7 +12723,7 @@
         <v>3940.17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2003</v>
       </c>
@@ -9775,7 +12792,7 @@
         <v>3972.92</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2004</v>
       </c>
@@ -9844,7 +12861,7 @@
         <v>4019.71</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2005</v>
       </c>
@@ -9913,7 +12930,7 @@
         <v>4260.9399999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2006</v>
       </c>
@@ -9982,7 +12999,7 @@
         <v>4569.1900000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2007</v>
       </c>
@@ -10051,7 +13068,7 @@
         <v>4674.72</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2008</v>
       </c>
@@ -10120,7 +13137,7 @@
         <v>4749.78</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2009</v>
       </c>
@@ -10189,7 +13206,7 @@
         <v>4891.7299999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2010</v>
       </c>
@@ -10258,7 +13275,7 @@
         <v>4923.4399999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2011</v>
       </c>
@@ -10830,82 +13847,82 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P26" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q26" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -10918,42 +13935,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="15"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="23"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -12191,47 +15208,47 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="16" t="s">
+      <c r="A50" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="16"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
@@ -12612,12 +15629,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B28:N28"/>
@@ -12634,15 +15654,12 @@
     <mergeCell ref="P28:T28"/>
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HEESI/HEESI.xlsx
+++ b/HEESI/HEESI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\System Dynamics\Github\system_dynamics_reference\HEESI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988ED026-F367-4E68-806A-7B9B5236A127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0610C-8FDE-4982-B39A-B94BCEACDAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEESI" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="227">
   <si>
     <t>Year</t>
   </si>
@@ -717,6 +717,12 @@
   <si>
     <t>Permintaan Gas Bumi Aktual</t>
   </si>
+  <si>
+    <t>Permintaan EBT (BOE)</t>
+  </si>
+  <si>
+    <t>Produksi Energi dari Sumber Terbarukan</t>
+  </si>
 </sst>
 </file>
 
@@ -967,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1067,12 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,13 +1119,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1138,26 +1152,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1293,7 +1304,7 @@
                 <c:pt idx="14">
                   <c:v>3175791000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>3116142000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
@@ -2345,13 +2356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADE83E-D9B8-4FAD-81B2-42F9EAFFBC69}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28:T28"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,6 +4473,87 @@
       <c r="T28">
         <f>VLOOKUP(T1,'Energi Primer Nasional'!$F$24:$G$43,2)</f>
         <v>614764574202870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29">
+        <f>VLOOKUP(B1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>303899141</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(C1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>308311581</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(D1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>305516297</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(E1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>305318112</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(F1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>307268880</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(G1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>307988196</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(H1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>311775482</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP(I1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>315108704</v>
+      </c>
+      <c r="J29">
+        <f>VLOOKUP(J1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>320525851</v>
+      </c>
+      <c r="K29">
+        <f>VLOOKUP(K1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>323721303</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(L1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>334335363</v>
+      </c>
+      <c r="M29">
+        <f>VLOOKUP(M1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>331857894</v>
+      </c>
+      <c r="N29">
+        <f>VLOOKUP(N1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>352534164</v>
+      </c>
+      <c r="O29">
+        <f>VLOOKUP(O1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>362170189</v>
+      </c>
+      <c r="P29">
+        <f>VLOOKUP(P1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>368459329</v>
+      </c>
+      <c r="Q29">
+        <f>VLOOKUP(Q1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>370645047.71765685</v>
+      </c>
+      <c r="R29">
+        <f>VLOOKUP(R1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>399032953.97687203</v>
+      </c>
+      <c r="S29">
+        <f>VLOOKUP(S1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>404298920.66309011</v>
+      </c>
+      <c r="T29">
+        <f>VLOOKUP(T1,'Energi Primer Nasional'!$K$25:$L$43,2)</f>
+        <v>448406840.02910364</v>
       </c>
     </row>
   </sheetData>
@@ -4496,15 +4588,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="N2" t="s">
         <v>102</v>
       </c>
@@ -4965,38 +5057,38 @@
       </c>
     </row>
     <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
       <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="86" t="s">
+      <c r="O17" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" s="86" t="s">
+      <c r="Q17" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="86" t="s">
+      <c r="R17" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="S17" s="77" t="s">
+      <c r="S17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="86" t="s">
+      <c r="U17" s="81" t="s">
         <v>2</v>
       </c>
       <c r="W17" s="20" t="s">
@@ -5016,40 +5108,40 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="62" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="77"/>
-      <c r="U18" s="86"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="74"/>
+      <c r="U18" s="81"/>
       <c r="W18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="AA18" s="20"/>
@@ -6701,25 +6793,25 @@
       <c r="B37" s="3">
         <v>2018</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>23020</v>
       </c>
       <c r="D37" s="36">
         <v>203</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="63">
         <v>3043</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="63">
         <v>61819</v>
       </c>
       <c r="G37" s="36">
         <v>167</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="63">
         <v>62963</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="63">
         <v>151214</v>
       </c>
       <c r="J37" s="4">
@@ -6760,14 +6852,14 @@
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -7051,33 +7143,33 @@
       </c>
     </row>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="M2" s="86" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="M2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="74" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="20" t="s">
@@ -7130,12 +7222,12 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="77"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="74"/>
       <c r="T3" s="20"/>
       <c r="V3" s="20"/>
       <c r="X3" s="20"/>
@@ -8703,56 +8795,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
@@ -8795,29 +8887,29 @@
       <c r="R4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="77"/>
+      <c r="S4" s="74"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
@@ -9406,42 +9498,42 @@
       </c>
     </row>
     <row r="18" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="V18" s="86" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="V18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="86" t="s">
+      <c r="W18" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="X18" s="86" t="s">
+      <c r="X18" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="Y18" s="86" t="s">
+      <c r="Y18" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="86" t="s">
+      <c r="Z18" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="AA18" s="77" t="s">
+      <c r="AA18" s="74" t="s">
         <v>20</v>
       </c>
       <c r="AC18" s="20" t="s">
@@ -9464,40 +9556,40 @@
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="77" t="s">
+      <c r="C19" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="77" t="s">
+      <c r="T19" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="77"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="74"/>
       <c r="AC19" s="20"/>
       <c r="AE19" s="20"/>
       <c r="AG19" s="20"/>
@@ -9506,8 +9598,8 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
@@ -9550,16 +9642,16 @@
       <c r="R20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="V20" s="77" t="s">
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="V20" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
       <c r="AC20" s="2" t="s">
         <v>101</v>
       </c>
@@ -11618,26 +11710,26 @@
       </c>
     </row>
     <row r="41" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
       <c r="W41" t="s">
         <v>102</v>
       </c>
@@ -11700,32 +11792,32 @@
       </c>
     </row>
     <row r="42" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C42" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="77" t="s">
+      <c r="C42" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="77" t="s">
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="T42" s="77" t="s">
+      <c r="T42" s="74" t="s">
         <v>20</v>
       </c>
       <c r="W42" t="s">
@@ -11790,8 +11882,8 @@
       </c>
     </row>
     <row r="43" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
@@ -11834,8 +11926,8 @@
       <c r="R43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
       <c r="W43" t="s">
         <v>104</v>
       </c>
@@ -12542,6 +12634,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="C18:T18"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:R19"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C41:T41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:R42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
     <mergeCell ref="AA18:AA19"/>
     <mergeCell ref="V20:AA20"/>
     <mergeCell ref="V18:V19"/>
@@ -12549,24 +12659,6 @@
     <mergeCell ref="X18:X19"/>
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="C41:T41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:R42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:R19"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C18:T18"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:R3"/>
-    <mergeCell ref="E5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12588,65 +12680,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="V1" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="77"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="74"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="74"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -12670,22 +12762,22 @@
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="Q3" s="77" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="Q3" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -13821,102 +13913,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="77" t="s">
+      <c r="T3" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="77" t="s">
+      <c r="V3" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="81" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
@@ -13929,11 +14021,11 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="86"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="81"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
@@ -14652,11 +14744,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
     <mergeCell ref="C2:W2"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -14671,6 +14758,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14694,17 +14786,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
@@ -15017,12 +15109,12 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
@@ -15301,33 +15393,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="S2" s="87" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="S2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
       <c r="X2" t="s">
         <v>107</v>
       </c>
@@ -15390,7 +15482,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -15513,31 +15605,31 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="S4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="S4" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
       <c r="X4" t="s">
         <v>109</v>
       </c>
@@ -16990,82 +17082,82 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="77" t="s">
+      <c r="A25" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77" t="s">
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="77" t="s">
+      <c r="M26" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="77" t="s">
+      <c r="P26" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="Q26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="77" t="s">
+      <c r="S26" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="86" t="s">
+      <c r="T26" s="81" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -17078,42 +17170,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="86"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="81"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="77" t="s">
+      <c r="P28" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -18351,47 +18443,47 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="77" t="s">
+      <c r="A50" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="92"/>
+      <c r="B51" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="74" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="77" t="s">
+      <c r="F51" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77" t="s">
+      <c r="G51" s="74"/>
+      <c r="H51" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="77"/>
+      <c r="I51" s="74"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="96"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
@@ -18771,7 +18863,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -18806,7 +18898,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="3" t="s">
         <v>115</v>
       </c>
@@ -18822,13 +18914,13 @@
       <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="78" t="s">
+      <c r="H75" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="80"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -19866,14 +19958,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B28:N28"/>
     <mergeCell ref="A2:A4"/>
@@ -19890,15 +19983,14 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19922,7 +20014,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -19972,26 +20064,26 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="M2" s="76" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="M2" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
@@ -22880,11 +22972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C975FF8-ECCE-4D21-A6A4-72D1DB9F2D45}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22896,7 +22988,9 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.140625" customWidth="1"/>
+    <col min="9" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45" bestFit="1" customWidth="1"/>
@@ -22905,7 +22999,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -22978,7 +23072,7 @@
         <v>138</v>
       </c>
       <c r="Y1" s="35"/>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="52" t="s">
         <v>220</v>
       </c>
       <c r="AA1" t="s">
@@ -23025,36 +23119,36 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+      <c r="A2" s="66">
         <v>2000</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="63">
         <v>93831548</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="63">
         <v>433360999</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="63">
         <v>164649922</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="63">
         <v>25248631</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="63">
         <v>9596400</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="63">
         <v>269054110</v>
       </c>
-      <c r="H2" s="64">
-        <v>0</v>
-      </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="68">
+      <c r="H2" s="63">
+        <v>0</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="65">
         <f>SUM(B2:M2)</f>
         <v>995741610</v>
       </c>
@@ -23159,22 +23253,22 @@
       <c r="A3" s="36">
         <v>2001</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="63">
         <v>119125379</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>441731352</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="63">
         <v>172083907</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="63">
         <v>29380607</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="63">
         <v>9960940</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <v>268970034</v>
       </c>
       <c r="H3" s="36">
@@ -23185,7 +23279,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
-      <c r="N3" s="68">
+      <c r="N3" s="65">
         <f t="shared" ref="N3:N20" si="4">SUM(B3:M3)</f>
         <v>1041252219</v>
       </c>
@@ -23290,22 +23384,22 @@
       <c r="A4" s="36">
         <v>2002</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>122879411</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <v>452817870</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>188822314</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>25038179</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>10248040</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>270230078</v>
       </c>
       <c r="H4" s="36">
@@ -23316,7 +23410,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="68">
+      <c r="N4" s="65">
         <f t="shared" si="4"/>
         <v>1070035892</v>
       </c>
@@ -23421,22 +23515,22 @@
       <c r="A5" s="36">
         <v>2003</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="63">
         <v>164950173</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <v>456647707</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>204142054</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>22937538</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="63">
         <v>10375200</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="63">
         <v>272005374</v>
       </c>
       <c r="H5" s="36">
@@ -23447,7 +23541,7 @@
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
-      <c r="N5" s="68">
+      <c r="N5" s="65">
         <f t="shared" si="4"/>
         <v>1131058046</v>
       </c>
@@ -23552,22 +23646,22 @@
       <c r="A6" s="36">
         <v>2004</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="63">
         <v>151543284</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>498117696</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>187553776</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>24385647</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="63">
         <v>11077000</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="63">
         <v>271806233</v>
       </c>
       <c r="H6" s="36">
@@ -23578,7 +23672,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="68">
+      <c r="N6" s="65">
         <f t="shared" si="4"/>
         <v>1144483636</v>
       </c>
@@ -23683,22 +23777,22 @@
       <c r="A7" s="36">
         <v>2005</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>173673093</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>493636985</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>191189376</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>27034841</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="63">
         <v>10910460</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="63">
         <v>270042895</v>
       </c>
       <c r="H7" s="36">
@@ -23709,7 +23803,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
-      <c r="N7" s="68">
+      <c r="N7" s="65">
         <f t="shared" si="4"/>
         <v>1166487650</v>
       </c>
@@ -23814,33 +23908,33 @@
       <c r="A8" s="36">
         <v>2006</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="63">
         <v>205779290</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>459929016</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>196599386</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>24256796</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="63">
         <v>11182742</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="63">
         <v>276335944</v>
       </c>
-      <c r="H8" s="64">
-        <v>0</v>
-      </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="68">
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="65">
         <f t="shared" si="4"/>
         <v>1174083174</v>
       </c>
@@ -23945,33 +24039,33 @@
       <c r="A9" s="36">
         <v>2007</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="63">
         <v>258174000</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>470036057</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>183623636</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>28450964</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="63">
         <v>11421759</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="63">
         <v>275199938</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <v>36043</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="68">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="65">
         <f t="shared" si="4"/>
         <v>1226942397</v>
       </c>
@@ -24076,33 +24170,33 @@
       <c r="A10" s="36">
         <v>2008</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>224587657</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>474496098</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>236049566</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>29060413</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="63">
         <v>13423610</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="63">
         <v>277981421</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <v>60407</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="68">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="65">
         <f t="shared" si="4"/>
         <v>1255659172</v>
       </c>
@@ -24207,33 +24301,33 @@
       <c r="A11" s="36">
         <v>2009</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="63">
         <v>236439000</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>467883065</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>251035250</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>28662883</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <v>14973198</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="63">
         <v>279313257</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <v>771965</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="68">
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="65">
         <f t="shared" si="4"/>
         <v>1279078618</v>
       </c>
@@ -24338,33 +24432,33 @@
       <c r="A12" s="36">
         <v>2010</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="63">
         <v>281400000</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>518405561</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>269942185</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>43952237</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>15266074</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="63">
         <v>273670429</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="63">
         <v>1446623</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="68">
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="65">
         <f t="shared" si="4"/>
         <v>1404083109</v>
       </c>
@@ -24469,33 +24563,33 @@
       <c r="A13" s="36">
         <v>2011</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="63">
         <v>334142760</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>546635311</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>261708332</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>31268976</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <v>15119152</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="63">
         <v>283140897</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="63">
         <v>2328869</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="68">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="65">
         <f t="shared" si="4"/>
         <v>1474344297</v>
       </c>
@@ -24600,33 +24694,33 @@
       <c r="A14" s="36">
         <v>2012</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="63">
         <v>377892961</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <v>533830676</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="63">
         <v>259456414</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <v>32226297</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <v>15129340</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <v>300838657</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="63">
         <v>4339870</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="68">
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="65">
         <f t="shared" si="4"/>
         <v>1523714215</v>
       </c>
@@ -24731,33 +24825,33 @@
       <c r="A15" s="36">
         <v>2013</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="63">
         <v>410566607</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="63">
         <v>542950370</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>232399957</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="63">
         <v>38494094</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <v>10644873</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="63">
         <v>306232741</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="63">
         <v>6798481</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="68">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="65">
         <f t="shared" si="4"/>
         <v>1548087123</v>
       </c>
@@ -24862,33 +24956,33 @@
       <c r="A16" s="36">
         <v>2014</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <v>497804744</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>544795076</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>271375371</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <v>30139213</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <v>16191566</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="63">
         <v>310162037</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="63">
         <v>11966513</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="68">
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="65">
         <f t="shared" si="4"/>
         <v>1682434520</v>
       </c>
@@ -24993,26 +25087,26 @@
       <c r="A17" s="36">
         <v>2015</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="63">
         <v>364619216</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="63">
         <v>607791169</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>275465640</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>35040466</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <v>16337878</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="65">
         <f>B40</f>
         <v>313328055.71765685</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="63">
         <v>5938648</v>
       </c>
       <c r="I17" s="36"/>
@@ -25020,7 +25114,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
-      <c r="N17" s="68">
+      <c r="N17" s="65">
         <f t="shared" si="4"/>
         <v>1618521072.7176569</v>
       </c>
@@ -25073,26 +25167,26 @@
       <c r="A18" s="36">
         <v>2016</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="63">
         <v>380310000</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <v>534207126</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>277169757</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>45452580</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <v>17537710</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="65">
         <f t="shared" ref="G18:G20" si="24">B41</f>
         <v>316526391.97687203</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="63">
         <v>19516272</v>
       </c>
       <c r="I18" s="36"/>
@@ -25100,7 +25194,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
-      <c r="N18" s="68">
+      <c r="N18" s="65">
         <f t="shared" si="4"/>
         <v>1590719836.976872</v>
       </c>
@@ -25153,26 +25247,26 @@
       <c r="A19" s="36">
         <v>2017</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="63">
         <v>407526000</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>567528788</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>275142227</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>47599892</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>20259621</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="65">
         <f t="shared" si="24"/>
         <v>319757375.66309011</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="63">
         <v>16682032</v>
       </c>
       <c r="I19" s="36"/>
@@ -25180,7 +25274,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="68">
+      <c r="N19" s="65">
         <f t="shared" si="4"/>
         <v>1654495935.6630902</v>
       </c>
@@ -25233,44 +25327,44 @@
       <c r="A20" s="36">
         <v>2018</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="63">
         <v>483336000</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="63">
         <v>569024765</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>288310815</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>40204916</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <v>26040932</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="65">
         <f t="shared" si="24"/>
         <v>323021340.02910364</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="63">
         <v>28381188</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="63">
         <v>359291</v>
       </c>
       <c r="J20" s="36">
         <v>466082</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="63">
         <v>29757578</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="63">
         <v>8795</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="63">
         <v>166718</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="65">
         <f t="shared" si="4"/>
         <v>1789078420.0291038</v>
       </c>
@@ -25378,13 +25472,13 @@
       <c r="Y22" s="35"/>
     </row>
     <row r="24" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="20" t="s">
         <v>180</v>
       </c>
       <c r="F24" s="20" t="s">
@@ -25393,20 +25487,28 @@
       <c r="G24" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="67">
         <v>2132298</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="68" t="s">
         <v>212</v>
       </c>
+      <c r="K24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>2000</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="63">
         <v>269054110</v>
       </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="F25" s="3">
         <v>2000</v>
       </c>
@@ -25414,16 +25516,25 @@
         <f>D2*$H$24</f>
         <v>351082699380756</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="K25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L25" s="4">
+        <f>SUM(E2:M2)</f>
+        <v>303899141</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>2001</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="63">
         <v>268970034</v>
       </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="F26" s="3">
         <v>2001</v>
       </c>
@@ -25431,16 +25542,25 @@
         <f t="shared" ref="G26:G43" si="25">D3*$H$24</f>
         <v>366934170728286</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
+      <c r="K26" s="3">
+        <v>2001</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:L43" si="26">SUM(E3:M3)</f>
+        <v>308311581</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>2002</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="63">
         <v>270230078</v>
       </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="F27" s="3">
         <v>2002</v>
       </c>
@@ -25448,16 +25568,25 @@
         <f t="shared" si="25"/>
         <v>402625442497572</v>
       </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
+      <c r="K27" s="3">
+        <v>2002</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="26"/>
+        <v>305516297</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>2003</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="63">
         <v>272005374</v>
       </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="F28" s="3">
         <v>2003</v>
       </c>
@@ -25465,16 +25594,25 @@
         <f t="shared" si="25"/>
         <v>435291693460092</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="K28" s="3">
+        <v>2003</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="26"/>
+        <v>305318112</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>2004</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="63">
         <v>271806233</v>
       </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="F29" s="3">
         <v>2004</v>
       </c>
@@ -25482,16 +25620,25 @@
         <f t="shared" si="25"/>
         <v>399920541457248</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
+      <c r="K29" s="3">
+        <v>2004</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="26"/>
+        <v>307268880</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>2005</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="63">
         <v>270042895</v>
       </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="F30" s="3">
         <v>2005</v>
       </c>
@@ -25499,16 +25646,25 @@
         <f t="shared" si="25"/>
         <v>407672724066048</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+      <c r="K30" s="3">
+        <v>2005</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="26"/>
+        <v>307988196</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>2006</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="63">
         <v>276335944</v>
       </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="F31" s="3">
         <v>2006</v>
       </c>
@@ -25516,16 +25672,25 @@
         <f t="shared" si="25"/>
         <v>419208477569028</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="K31" s="3">
+        <v>2006</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="26"/>
+        <v>311775482</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>2007</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="63">
         <v>275199938</v>
       </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="F32" s="3">
         <v>2007</v>
       </c>
@@ -25533,20 +25698,27 @@
         <f t="shared" si="25"/>
         <v>391540311795528</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
+      <c r="K32" s="3">
+        <v>2007</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="26"/>
+        <v>315108704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>2008</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="63">
         <v>277981421</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>114085558</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <f>C33/B33</f>
         <v>0.41040713292849884</v>
       </c>
@@ -25557,21 +25729,28 @@
         <f t="shared" si="25"/>
         <v>503328017482668</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
+      <c r="K33" s="3">
+        <v>2008</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="26"/>
+        <v>320525851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>2009</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="63">
         <v>279313257</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>109029170</v>
       </c>
-      <c r="D34">
-        <f t="shared" ref="D34:D39" si="26">C34/B34</f>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D39" si="27">C34/B34</f>
         <v>0.39034727950632148</v>
       </c>
       <c r="F34" s="3">
@@ -25581,21 +25760,28 @@
         <f t="shared" si="25"/>
         <v>535281961504500</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
+      <c r="K34" s="3">
+        <v>2009</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="26"/>
+        <v>323721303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>2010</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="63">
         <v>273670429</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>107822916</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="26"/>
+      <c r="D35" s="3">
+        <f t="shared" si="27"/>
         <v>0.39398818642550526</v>
       </c>
       <c r="F35" s="3">
@@ -25605,21 +25791,28 @@
         <f t="shared" si="25"/>
         <v>575597181191130</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="H35" s="67"/>
+      <c r="I35" s="68"/>
+      <c r="K35" s="3">
+        <v>2010</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="26"/>
+        <v>334335363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2011</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="63">
         <v>283140897</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>105354823</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="26"/>
+      <c r="D36" s="3">
+        <f t="shared" si="27"/>
         <v>0.37209327270019915</v>
       </c>
       <c r="F36" s="3">
@@ -25629,21 +25822,28 @@
         <f t="shared" si="25"/>
         <v>558040152906936</v>
       </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="71"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="H36" s="67"/>
+      <c r="I36" s="68"/>
+      <c r="K36" s="3">
+        <v>2011</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="26"/>
+        <v>331857894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>2012</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="63">
         <v>300838657</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>99383737</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="26"/>
+      <c r="D37" s="3">
+        <f t="shared" si="27"/>
         <v>0.33035560652698964</v>
       </c>
       <c r="F37" s="3">
@@ -25653,21 +25853,28 @@
         <f t="shared" si="25"/>
         <v>553238392659372</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
+      <c r="K37" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="26"/>
+        <v>352534164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>2013</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="63">
         <v>306232741</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>95374094</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="26"/>
+      <c r="D38" s="3">
+        <f t="shared" si="27"/>
         <v>0.3114431647267919</v>
       </c>
       <c r="F38" s="3">
@@ -25677,21 +25884,28 @@
         <f t="shared" si="25"/>
         <v>495545963511186</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="71"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="H38" s="67"/>
+      <c r="I38" s="68"/>
+      <c r="K38" s="3">
+        <v>2013</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="26"/>
+        <v>362170189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>2014</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="63">
         <v>310162037</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>92873723</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="26"/>
+      <c r="D39" s="3">
+        <f t="shared" si="27"/>
         <v>0.29943613956855719</v>
       </c>
       <c r="E39">
@@ -25705,21 +25919,28 @@
         <f t="shared" si="25"/>
         <v>578653160832558</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="71"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="H39" s="67"/>
+      <c r="I39" s="68"/>
+      <c r="K39" s="3">
+        <v>2014</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="26"/>
+        <v>368459329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>2015</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="65">
         <f>B39*(1+$E$40)</f>
         <v>313328055.71765685</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="63">
         <v>84768404</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <f>D39*(1+$E$39)</f>
         <v>0.28410950766519727</v>
       </c>
@@ -25734,22 +25955,29 @@
         <f t="shared" si="25"/>
         <v>587374833240720</v>
       </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
+      <c r="K40" s="3">
+        <v>2015</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="26"/>
+        <v>370645047.71765685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>2016</v>
       </c>
-      <c r="B41" s="45">
-        <f t="shared" ref="B41:B43" si="27">B40*(1+$E$40)</f>
+      <c r="B41" s="65">
+        <f t="shared" ref="B41:B43" si="28">B40*(1+$E$40)</f>
         <v>316526391.97687203</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="63">
         <v>79987014</v>
       </c>
-      <c r="D41">
-        <f t="shared" ref="D41:D43" si="28">D40*(1+$E$39)</f>
+      <c r="D41" s="3">
+        <f t="shared" ref="D41:D43" si="29">D40*(1+$E$39)</f>
         <v>0.26956736906261108</v>
       </c>
       <c r="F41" s="3">
@@ -25759,22 +25987,29 @@
         <f t="shared" si="25"/>
         <v>591008518511586</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="71"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
+      <c r="K41" s="3">
+        <v>2016</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="26"/>
+        <v>399032953.97687203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>2017</v>
       </c>
-      <c r="B42" s="45">
-        <f t="shared" si="27"/>
+      <c r="B42" s="65">
+        <f t="shared" si="28"/>
         <v>319757375.66309011</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="63">
         <v>75001916</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="28"/>
+      <c r="D42" s="3">
+        <f t="shared" si="29"/>
         <v>0.25576956948927709</v>
       </c>
       <c r="F42" s="3">
@@ -25784,22 +26019,29 @@
         <f t="shared" si="25"/>
         <v>586685220347646</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="H42" s="67"/>
+      <c r="I42" s="68"/>
+      <c r="K42" s="3">
+        <v>2017</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="26"/>
+        <v>404298920.66309011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>2018</v>
       </c>
-      <c r="B43" s="45">
-        <f t="shared" si="27"/>
+      <c r="B43" s="65">
+        <f t="shared" si="28"/>
         <v>323021340.02910364</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="63">
         <v>67750663</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="28"/>
+      <c r="D43" s="3">
+        <f t="shared" si="29"/>
         <v>0.24267800996913616</v>
       </c>
       <c r="F43" s="3">
@@ -25809,8 +26051,15 @@
         <f t="shared" si="25"/>
         <v>614764574202870</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="71"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="68"/>
+      <c r="K43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="26"/>
+        <v>448406840.02910364</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25847,67 +26096,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="48" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="47">
         <v>4.79</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="73" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="46" t="s">
         <v>189</v>
       </c>
       <c r="M2" t="s">
@@ -25933,482 +26182,482 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>77040185</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>58460492</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <v>140116</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="50">
         <f t="shared" ref="E3:E21" si="0">B3*$F$1</f>
         <v>369022486.14999998</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="50">
         <f t="shared" ref="F3:F21" si="1">C3*$F$1</f>
         <v>280025756.68000001</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <f t="shared" ref="G3:G21" si="2">D3*$F$1</f>
         <v>671155.64</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="46"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>92540460</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>65281086</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>30466</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="0"/>
         <v>443268803.39999998</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f t="shared" si="1"/>
         <v>312696401.94</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f t="shared" si="2"/>
         <v>145932.14000000001</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="46"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>103329093</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>74177926</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>20026</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <f t="shared" si="0"/>
         <v>494946355.47000003</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <f t="shared" si="1"/>
         <v>355312265.54000002</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f t="shared" si="2"/>
         <v>95924.54</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>114278000</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>85680621</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>38228</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <f t="shared" si="0"/>
         <v>547391620</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" si="1"/>
         <v>410410174.58999997</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <f t="shared" si="2"/>
         <v>183112.12</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>132352025</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>93758806</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>97183</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <f t="shared" si="0"/>
         <v>633966199.75</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <f t="shared" si="1"/>
         <v>449104680.74000001</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f t="shared" si="2"/>
         <v>465506.57</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>152722438</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>110789700</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>98179</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <f t="shared" si="0"/>
         <v>731540478.01999998</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <f t="shared" si="1"/>
         <v>530682663</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <f t="shared" si="2"/>
         <v>470277.41000000003</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>193761311</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>143632865</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>110683</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <f t="shared" si="0"/>
         <v>928116679.69000006</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f t="shared" si="1"/>
         <v>688001423.35000002</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <f t="shared" si="2"/>
         <v>530171.56999999995</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>216946699</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>163000000</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <v>67534</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <f t="shared" si="0"/>
         <v>1039174688.21</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f t="shared" si="1"/>
         <v>780770000</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f t="shared" si="2"/>
         <v>323487.86</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>240249968</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>191430218</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>106931</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="50">
         <f t="shared" si="0"/>
         <v>1150797346.72</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="1"/>
         <v>916950744.22000003</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f t="shared" si="2"/>
         <v>512199.49</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>256181000</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>198366000</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>68804</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <f t="shared" si="0"/>
         <v>1227106990</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f t="shared" si="1"/>
         <v>950173140</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f t="shared" si="2"/>
         <v>329571.15999999997</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>275164196</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>208000000</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>55230</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <f t="shared" si="0"/>
         <v>1318036498.8399999</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <f t="shared" si="1"/>
         <v>996320000</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="50">
         <f t="shared" si="2"/>
         <v>264551.7</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="49">
         <v>353270937</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>272671351</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>42449</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <f t="shared" si="0"/>
         <v>1692167788.23</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f t="shared" si="1"/>
         <v>1306095771.29</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="50">
         <f t="shared" si="2"/>
         <v>203330.71</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="49">
         <v>386077357</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>304051216</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>77786</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <f t="shared" si="0"/>
         <v>1849310540.03</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <f t="shared" si="1"/>
         <v>1456405324.6400001</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <f t="shared" si="2"/>
         <v>372594.94</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="49">
         <v>474371369</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>356357973</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>609875</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <f t="shared" si="0"/>
         <v>2272238857.5100002</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <f t="shared" si="1"/>
         <v>1706954690.6700001</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <f t="shared" si="2"/>
         <v>2921301.25</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>2014</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="49">
         <v>458096707</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="49">
         <v>381972830</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>2442319</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f t="shared" si="0"/>
         <v>2194283226.5300002</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <f t="shared" si="1"/>
         <v>1829649855.7</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <f t="shared" si="2"/>
         <v>11698708.01</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="51">
         <f>M17*1000</f>
         <v>1924006000</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="51">
         <f t="shared" ref="I17:K17" si="3">N17*1000</f>
         <v>10662000</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="51">
         <f t="shared" si="3"/>
         <v>1604286000</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="51">
         <f t="shared" si="3"/>
         <v>167423000</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="54">
         <f>H17+I17-J17+K17</f>
         <v>497805000</v>
       </c>
@@ -26424,7 +26673,7 @@
       <c r="P17" s="4">
         <v>167423</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="53">
         <f>M17-O17+N17+P17</f>
         <v>497805</v>
       </c>
@@ -26437,125 +26686,125 @@
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="49">
         <v>461566080</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="49">
         <v>365849610</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="49">
         <v>3007934</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <f t="shared" si="0"/>
         <v>2210901523.1999998</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <f t="shared" si="1"/>
         <v>1752419631.9000001</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="50">
         <f t="shared" si="2"/>
         <v>14408003.859999999</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>456197775</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <v>331128438</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="49">
         <v>3898932</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="50">
         <f t="shared" si="0"/>
         <v>2185187342.25</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f t="shared" si="1"/>
         <v>1586105218.02</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <f t="shared" si="2"/>
         <v>18675884.280000001</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>461248184</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="49">
         <v>297741135</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="49">
         <v>4532308</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <f t="shared" si="0"/>
         <v>2209378801.3600001</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <f t="shared" si="1"/>
         <v>1426180036.6500001</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <f t="shared" si="2"/>
         <v>21709755.32</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="49">
         <v>557772940</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <v>356394687</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="49">
         <v>5468706</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <f t="shared" si="0"/>
         <v>2671732382.5999999</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="50">
         <f t="shared" si="1"/>
         <v>1707130550.73</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <f t="shared" si="2"/>
         <v>26195101.739999998</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -26622,20 +26871,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -27266,16 +27515,16 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -27355,7 +27604,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27367,6 +27616,7 @@
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -27378,55 +27628,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
       <c r="H1">
         <f>10^12</f>
         <v>1000000000000</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="81" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="59"/>
-      <c r="S1" s="77" t="s">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="58"/>
+      <c r="S1" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="58">
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="57">
         <v>2132298</v>
       </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AF1" s="58" t="s">
         <v>212</v>
       </c>
     </row>
@@ -27476,7 +27726,7 @@
       <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="62">
+      <c r="Q2" s="61">
         <v>1000000</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -27515,8 +27765,8 @@
       <c r="AD2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -27567,45 +27817,45 @@
         <f t="shared" si="3"/>
         <v>2901302000000</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="58"/>
       <c r="S3" s="2">
         <v>2000</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="2">
         <v>2000</v>
       </c>
-      <c r="X3" s="61">
+      <c r="X3" s="60">
         <f>T3*1000</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="61">
+      <c r="Y3" s="60">
         <f t="shared" ref="Y3:Z18" si="4">U3*1000</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="61">
+      <c r="Z3" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA3" s="2">
         <v>2000</v>
       </c>
-      <c r="AB3" s="61">
+      <c r="AB3" s="60">
         <f>X3*$AE$1</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="61">
+      <c r="AC3" s="60">
         <f t="shared" ref="AC3:AD3" si="5">Y3*$AE$1</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="61">
+      <c r="AD3" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -27660,45 +27910,45 @@
         <f t="shared" ref="P4:P21" si="8">M4*$Q$2</f>
         <v>2806084000000</v>
       </c>
-      <c r="Q4" s="59"/>
+      <c r="Q4" s="58"/>
       <c r="S4" s="2">
         <v>2001</v>
       </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
       <c r="W4" s="2">
         <v>2001</v>
       </c>
-      <c r="X4" s="61">
+      <c r="X4" s="60">
         <f t="shared" ref="X4:X23" si="9">T4*1000</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="Z4" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
         <v>2001</v>
       </c>
-      <c r="AB4" s="61">
+      <c r="AB4" s="60">
         <f t="shared" ref="AB4:AB23" si="10">X4*$AE$1</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="61">
+      <c r="AC4" s="60">
         <f t="shared" ref="AC4:AC23" si="11">Y4*$AE$1</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="61">
+      <c r="AD4" s="60">
         <f t="shared" ref="AD4:AD23" si="12">Z4*$AE$1</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -27753,45 +28003,45 @@
         <f t="shared" si="8"/>
         <v>3036355000000</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="58"/>
       <c r="S5" s="2">
         <v>2002</v>
       </c>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="2">
         <v>2002</v>
       </c>
-      <c r="X5" s="61">
+      <c r="X5" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="61">
+      <c r="Y5" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA5" s="2">
         <v>2002</v>
       </c>
-      <c r="AB5" s="61">
+      <c r="AB5" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="61">
+      <c r="AC5" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="61">
+      <c r="AD5" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -27846,45 +28096,45 @@
         <f t="shared" si="8"/>
         <v>3155243000000</v>
       </c>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="58"/>
       <c r="S6" s="2">
         <v>2003</v>
       </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
       <c r="W6" s="2">
         <v>2003</v>
       </c>
-      <c r="X6" s="61">
+      <c r="X6" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="Y6" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="61">
+      <c r="Z6" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA6" s="2">
         <v>2003</v>
       </c>
-      <c r="AB6" s="61">
+      <c r="AB6" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="61">
+      <c r="AC6" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="61">
+      <c r="AD6" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -27939,45 +28189,45 @@
         <f t="shared" si="8"/>
         <v>3003945000000</v>
       </c>
-      <c r="Q7" s="59"/>
+      <c r="Q7" s="58"/>
       <c r="S7" s="2">
         <v>2004</v>
       </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
       <c r="W7" s="2">
         <v>2004</v>
       </c>
-      <c r="X7" s="61">
+      <c r="X7" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="61">
+      <c r="Y7" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="61">
+      <c r="Z7" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA7" s="2">
         <v>2004</v>
       </c>
-      <c r="AB7" s="61">
+      <c r="AB7" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="61">
+      <c r="AC7" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="61">
+      <c r="AD7" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -28032,45 +28282,45 @@
         <f t="shared" si="8"/>
         <v>2985341000000</v>
       </c>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="58"/>
       <c r="S8" s="2">
         <v>2005</v>
       </c>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
       <c r="W8" s="2">
         <v>2005</v>
       </c>
-      <c r="X8" s="61">
+      <c r="X8" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="61">
+      <c r="Z8" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA8" s="2">
         <v>2005</v>
       </c>
-      <c r="AB8" s="61">
+      <c r="AB8" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="61">
+      <c r="AC8" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="61">
+      <c r="AD8" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -28125,45 +28375,45 @@
         <f t="shared" si="8"/>
         <v>2953997000000</v>
       </c>
-      <c r="Q9" s="59"/>
+      <c r="Q9" s="58"/>
       <c r="S9" s="2">
         <v>2006</v>
       </c>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
       <c r="W9" s="2">
         <v>2006</v>
       </c>
-      <c r="X9" s="61">
+      <c r="X9" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA9" s="2">
         <v>2006</v>
       </c>
-      <c r="AB9" s="61">
+      <c r="AB9" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="61">
+      <c r="AC9" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="61">
+      <c r="AD9" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -28218,45 +28468,45 @@
         <f t="shared" si="8"/>
         <v>2805540000000</v>
       </c>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="58"/>
       <c r="S10" s="2">
         <v>2007</v>
       </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
       <c r="W10" s="2">
         <v>2007</v>
       </c>
-      <c r="X10" s="61">
+      <c r="X10" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="61">
+      <c r="Y10" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="61">
+      <c r="Z10" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA10" s="2">
         <v>2007</v>
       </c>
-      <c r="AB10" s="61">
+      <c r="AB10" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="61">
+      <c r="AC10" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="61">
+      <c r="AD10" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -28311,49 +28561,49 @@
         <f t="shared" si="8"/>
         <v>2885328000000</v>
       </c>
-      <c r="Q11" s="59"/>
+      <c r="Q11" s="58"/>
       <c r="S11" s="2">
         <v>2008</v>
       </c>
-      <c r="T11" s="60">
+      <c r="T11" s="59">
         <v>444238</v>
       </c>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60">
+      <c r="U11" s="59"/>
+      <c r="V11" s="59">
         <v>59169</v>
       </c>
       <c r="W11" s="2">
         <v>2008</v>
       </c>
-      <c r="X11" s="61">
+      <c r="X11" s="60">
         <f t="shared" si="9"/>
         <v>444238000</v>
       </c>
-      <c r="Y11" s="61">
+      <c r="Y11" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="61">
+      <c r="Z11" s="60">
         <f t="shared" si="4"/>
         <v>59169000</v>
       </c>
       <c r="AA11" s="2">
         <v>2008</v>
       </c>
-      <c r="AB11" s="61">
+      <c r="AB11" s="60">
         <f t="shared" si="10"/>
         <v>947247798924000</v>
       </c>
-      <c r="AC11" s="61">
+      <c r="AC11" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="61">
+      <c r="AD11" s="60">
         <f t="shared" si="12"/>
         <v>126165940362000</v>
       </c>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -28408,49 +28658,49 @@
         <f t="shared" si="8"/>
         <v>3060897000000</v>
       </c>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="58"/>
       <c r="S12" s="2">
         <v>2009</v>
       </c>
-      <c r="T12" s="60">
+      <c r="T12" s="59">
         <v>459544</v>
       </c>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60">
+      <c r="U12" s="59"/>
+      <c r="V12" s="59">
         <v>52822</v>
       </c>
       <c r="W12" s="2">
         <v>2009</v>
       </c>
-      <c r="X12" s="61">
+      <c r="X12" s="60">
         <f t="shared" si="9"/>
         <v>459544000</v>
       </c>
-      <c r="Y12" s="61">
+      <c r="Y12" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="61">
+      <c r="Z12" s="60">
         <f t="shared" si="4"/>
         <v>52822000</v>
       </c>
       <c r="AA12" s="2">
         <v>2009</v>
       </c>
-      <c r="AB12" s="61">
+      <c r="AB12" s="60">
         <f t="shared" si="10"/>
         <v>979884752112000</v>
       </c>
-      <c r="AC12" s="61">
+      <c r="AC12" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="61">
+      <c r="AD12" s="60">
         <f t="shared" si="12"/>
         <v>112632244956000</v>
       </c>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -28505,45 +28755,45 @@
         <f t="shared" si="8"/>
         <v>3407592000000</v>
       </c>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="58"/>
       <c r="S13" s="2">
         <v>2010</v>
       </c>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
       <c r="W13" s="2">
         <v>2010</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="61">
+      <c r="Y13" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA13" s="2">
         <v>2010</v>
       </c>
-      <c r="AB13" s="61">
+      <c r="AB13" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="61">
+      <c r="AC13" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="61">
+      <c r="AD13" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -28598,49 +28848,49 @@
         <f t="shared" si="8"/>
         <v>3256379000000</v>
       </c>
-      <c r="Q14" s="59"/>
+      <c r="Q14" s="58"/>
       <c r="S14" s="2">
         <v>2011</v>
       </c>
-      <c r="T14" s="60">
+      <c r="T14" s="59">
         <v>519210</v>
       </c>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60">
+      <c r="U14" s="59"/>
+      <c r="V14" s="59">
         <v>60258</v>
       </c>
       <c r="W14" s="2">
         <v>2011</v>
       </c>
-      <c r="X14" s="61">
+      <c r="X14" s="60">
         <f t="shared" si="9"/>
         <v>519210000</v>
       </c>
-      <c r="Y14" s="61">
+      <c r="Y14" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="61">
+      <c r="Z14" s="60">
         <f t="shared" si="4"/>
         <v>60258000</v>
       </c>
       <c r="AA14" s="2">
         <v>2011</v>
       </c>
-      <c r="AB14" s="61">
+      <c r="AB14" s="60">
         <f t="shared" si="10"/>
         <v>1107110444580000</v>
       </c>
-      <c r="AC14" s="61">
+      <c r="AC14" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="61">
+      <c r="AD14" s="60">
         <f t="shared" si="12"/>
         <v>128488012884000</v>
       </c>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -28695,49 +28945,49 @@
         <f t="shared" si="8"/>
         <v>3174639000000</v>
       </c>
-      <c r="Q15" s="59"/>
+      <c r="Q15" s="58"/>
       <c r="S15" s="2">
         <v>2012</v>
       </c>
-      <c r="T15" s="60">
+      <c r="T15" s="59">
         <v>494331</v>
       </c>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60">
+      <c r="U15" s="59"/>
+      <c r="V15" s="59">
         <v>64355</v>
       </c>
       <c r="W15" s="2">
         <v>2012</v>
       </c>
-      <c r="X15" s="61">
+      <c r="X15" s="60">
         <f t="shared" si="9"/>
         <v>494331000</v>
       </c>
-      <c r="Y15" s="61">
+      <c r="Y15" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="61">
+      <c r="Z15" s="60">
         <f t="shared" si="4"/>
         <v>64355000</v>
       </c>
       <c r="AA15" s="2">
         <v>2012</v>
       </c>
-      <c r="AB15" s="61">
+      <c r="AB15" s="60">
         <f t="shared" si="10"/>
         <v>1054061002638000</v>
       </c>
-      <c r="AC15" s="61">
+      <c r="AC15" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="61">
+      <c r="AD15" s="60">
         <f t="shared" si="12"/>
         <v>137224037790000</v>
       </c>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -28792,49 +29042,49 @@
         <f t="shared" si="8"/>
         <v>3120838000000</v>
       </c>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="58"/>
       <c r="S16" s="2">
         <v>2013</v>
       </c>
-      <c r="T16" s="60">
+      <c r="T16" s="59">
         <v>462317</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60">
+      <c r="U16" s="59"/>
+      <c r="V16" s="59">
         <v>60195</v>
       </c>
       <c r="W16" s="2">
         <v>2013</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="60">
         <f t="shared" si="9"/>
         <v>462317000</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="61">
+      <c r="Z16" s="60">
         <f t="shared" si="4"/>
         <v>60195000</v>
       </c>
       <c r="AA16" s="2">
         <v>2013</v>
       </c>
-      <c r="AB16" s="61">
+      <c r="AB16" s="60">
         <f t="shared" si="10"/>
         <v>985797614466000</v>
       </c>
-      <c r="AC16" s="61">
+      <c r="AC16" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="61">
+      <c r="AD16" s="60">
         <f t="shared" si="12"/>
         <v>128353678110000</v>
       </c>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -28889,49 +29139,49 @@
         <f t="shared" si="8"/>
         <v>3175791000000</v>
       </c>
-      <c r="Q17" s="59"/>
+      <c r="Q17" s="58"/>
       <c r="S17" s="2">
         <v>2014</v>
       </c>
-      <c r="T17" s="60">
+      <c r="T17" s="59">
         <v>482749</v>
       </c>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60">
+      <c r="U17" s="59"/>
+      <c r="V17" s="59">
         <v>61543</v>
       </c>
       <c r="W17" s="2">
         <v>2014</v>
       </c>
-      <c r="X17" s="61">
+      <c r="X17" s="60">
         <f t="shared" si="9"/>
         <v>482749000</v>
       </c>
-      <c r="Y17" s="61">
+      <c r="Y17" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="60">
         <f t="shared" si="4"/>
         <v>61543000</v>
       </c>
       <c r="AA17" s="2">
         <v>2014</v>
       </c>
-      <c r="AB17" s="61">
+      <c r="AB17" s="60">
         <f t="shared" si="10"/>
         <v>1029364727202000</v>
       </c>
-      <c r="AC17" s="61">
+      <c r="AC17" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="61">
+      <c r="AD17" s="60">
         <f t="shared" si="12"/>
         <v>131228015814000</v>
       </c>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -28965,7 +29215,7 @@
       <c r="J18" s="2">
         <v>2015</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="94">
         <v>376669</v>
       </c>
       <c r="L18" s="5">
@@ -28982,53 +29232,53 @@
         <f t="shared" si="7"/>
         <v>2739473000000</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="96">
         <f t="shared" si="8"/>
         <v>3116142000000</v>
       </c>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="58"/>
       <c r="S18" s="2">
         <v>2015</v>
       </c>
-      <c r="T18" s="60">
+      <c r="T18" s="59">
         <v>480375</v>
       </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60">
+      <c r="U18" s="59"/>
+      <c r="V18" s="59">
         <v>55080</v>
       </c>
       <c r="W18" s="2">
         <v>2015</v>
       </c>
-      <c r="X18" s="61">
+      <c r="X18" s="60">
         <f t="shared" si="9"/>
         <v>480375000</v>
       </c>
-      <c r="Y18" s="61">
+      <c r="Y18" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="61">
+      <c r="Z18" s="60">
         <f t="shared" si="4"/>
         <v>55080000</v>
       </c>
       <c r="AA18" s="2">
         <v>2015</v>
       </c>
-      <c r="AB18" s="61">
+      <c r="AB18" s="95">
         <f t="shared" si="10"/>
         <v>1024302651750000</v>
       </c>
-      <c r="AC18" s="61">
+      <c r="AC18" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="61">
+      <c r="AD18" s="60">
         <f t="shared" si="12"/>
         <v>117446973840000</v>
       </c>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -29083,49 +29333,49 @@
         <f t="shared" si="8"/>
         <v>3070239000000</v>
       </c>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="58"/>
       <c r="S19" s="2">
         <v>2016</v>
       </c>
-      <c r="T19" s="60">
+      <c r="T19" s="59">
         <v>473613</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60">
+      <c r="U19" s="59"/>
+      <c r="V19" s="59">
         <v>50780</v>
       </c>
       <c r="W19" s="2">
         <v>2016</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="60">
         <f t="shared" si="9"/>
         <v>473613000</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="60">
         <f t="shared" ref="Y19:Y23" si="14">U19*1000</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="60">
         <f t="shared" ref="Z19:Z23" si="15">V19*1000</f>
         <v>50780000</v>
       </c>
       <c r="AA19" s="2">
         <v>2016</v>
       </c>
-      <c r="AB19" s="61">
+      <c r="AB19" s="60">
         <f t="shared" si="10"/>
         <v>1009884052674000</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="61">
+      <c r="AD19" s="60">
         <f t="shared" si="12"/>
         <v>108278092440000</v>
       </c>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -29180,45 +29430,45 @@
         <f t="shared" si="8"/>
         <v>2963184000000</v>
       </c>
-      <c r="Q20" s="59"/>
+      <c r="Q20" s="58"/>
       <c r="S20" s="2">
         <v>2017</v>
       </c>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
       <c r="W20" s="2">
         <v>2017</v>
       </c>
-      <c r="X20" s="61">
+      <c r="X20" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="61">
+      <c r="Y20" s="60">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="61">
+      <c r="Z20" s="60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA20" s="2">
         <v>2017</v>
       </c>
-      <c r="AB20" s="61">
+      <c r="AB20" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="61">
+      <c r="AC20" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="61">
+      <c r="AD20" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -29273,49 +29523,49 @@
         <f t="shared" si="8"/>
         <v>2996802000000</v>
       </c>
-      <c r="Q21" s="59"/>
+      <c r="Q21" s="58"/>
       <c r="S21" s="2">
         <v>2018</v>
       </c>
-      <c r="T21" s="60">
+      <c r="T21" s="59">
         <v>460281</v>
       </c>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60">
+      <c r="U21" s="59"/>
+      <c r="V21" s="59">
         <v>46908</v>
       </c>
       <c r="W21" s="2">
         <v>2018</v>
       </c>
-      <c r="X21" s="61">
+      <c r="X21" s="60">
         <f t="shared" si="9"/>
         <v>460281000</v>
       </c>
-      <c r="Y21" s="61">
+      <c r="Y21" s="60">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="61">
+      <c r="Z21" s="60">
         <f t="shared" si="15"/>
         <v>46908000</v>
       </c>
       <c r="AA21" s="2">
         <v>2018</v>
       </c>
-      <c r="AB21" s="61">
+      <c r="AB21" s="60">
         <f t="shared" si="10"/>
         <v>981456255738000</v>
       </c>
-      <c r="AC21" s="61">
+      <c r="AC21" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="61">
+      <c r="AD21" s="60">
         <f t="shared" si="12"/>
         <v>100021834584000</v>
       </c>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -29336,7 +29586,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="59"/>
+      <c r="Q22" s="58"/>
       <c r="S22" s="2">
         <v>2019</v>
       </c>
@@ -29346,35 +29596,35 @@
       <c r="W22" s="2">
         <v>2019</v>
       </c>
-      <c r="X22" s="61">
+      <c r="X22" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="61">
+      <c r="Y22" s="60">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="61">
+      <c r="Z22" s="60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA22" s="2">
         <v>2019</v>
       </c>
-      <c r="AB22" s="61">
+      <c r="AB22" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="61">
+      <c r="AC22" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="61">
+      <c r="AD22" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -29395,7 +29645,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="59"/>
+      <c r="Q23" s="58"/>
       <c r="S23" s="2">
         <v>2020</v>
       </c>
@@ -29405,35 +29655,35 @@
       <c r="W23" s="2">
         <v>2020</v>
       </c>
-      <c r="X23" s="61">
+      <c r="X23" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="61">
+      <c r="Y23" s="60">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="61">
+      <c r="Z23" s="60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA23" s="2">
         <v>2020</v>
       </c>
-      <c r="AB23" s="61">
+      <c r="AB23" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="61">
+      <c r="AC23" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="61">
+      <c r="AD23" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29471,33 +29721,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" t="s">
         <v>159</v>
       </c>
@@ -30185,60 +30435,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="86" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -30254,28 +30504,28 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="77"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="90"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
@@ -31051,97 +31301,97 @@
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="3"/>
       <c r="AC26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="77" t="s">
+      <c r="A27" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="91" t="s">
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="84" t="s">
+      <c r="L27" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="84" t="s">
+      <c r="M27" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="84" t="s">
+      <c r="N27" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="86" t="s">
+      <c r="P27" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="86" t="s">
+      <c r="Q27" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="R27" s="86" t="s">
+      <c r="R27" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="86" t="s">
+      <c r="S27" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="86" t="s">
+      <c r="T27" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="U27" s="77" t="s">
+      <c r="U27" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="94" t="s">
+      <c r="V27" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="94" t="s">
+      <c r="W27" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="X27" s="94" t="s">
+      <c r="X27" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="Y27" s="94" t="s">
+      <c r="Y27" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" s="94" t="s">
+      <c r="Z27" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AA27" s="93" t="s">
+      <c r="AA27" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AC27" s="86" t="s">
+      <c r="AC27" s="81" t="s">
         <v>2</v>
       </c>
       <c r="AE27" s="20" t="s">
@@ -31161,11 +31411,11 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -31181,23 +31431,23 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="93"/>
-      <c r="AC28" s="86"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="83"/>
+      <c r="AC28" s="81"/>
       <c r="AE28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AI28" s="20"/>
@@ -31205,38 +31455,38 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="86" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="P29" s="77" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="P29" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="93" t="s">
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -33671,45 +33921,45 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="77" t="s">
+      <c r="A52" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="77" t="s">
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="77" t="s">
+      <c r="J52" s="74" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3"/>
@@ -33717,10 +33967,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -33733,8 +33983,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -34093,21 +34343,23 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="M27:M28"/>
@@ -34123,23 +34375,21 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
